--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_12_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_12_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29925.52909817177</v>
+        <v>18105.54349918032</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20136975.01142809</v>
+        <v>20136975.01142807</v>
       </c>
     </row>
     <row r="9">
@@ -1843,23 +1843,23 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>22.1631541270197</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>25.16252739216588</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="U17" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>22.16315412701971</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
         <v>22.16315412701971</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1979,10 +1979,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>25.16252739216588</v>
@@ -2001,67 +2001,67 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>25.16252739216588</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="T19" t="n">
-        <v>22.16315412701969</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>25.16252739216588</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>22.1631541270197</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>22.16315412701969</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>22.16315412701971</v>
       </c>
     </row>
     <row r="21">
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>22.16315412701969</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>25.16252739216588</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="W21" t="n">
         <v>25.16252739216588</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>22.1631541270197</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>22.1631541270197</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>25.16252739216588</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="W22" t="n">
-        <v>22.16315412701971</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>60.23221703791651</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="V23" t="n">
-        <v>60.23221703791651</v>
+        <v>53.05253676699684</v>
       </c>
       <c r="W23" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>53.05253676699684</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,23 +2396,23 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
         <v>60.23221703791651</v>
       </c>
-      <c r="C24" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>53.05253676699684</v>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
@@ -2456,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>60.23221703791651</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2475,76 +2475,76 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>53.05253676699684</v>
+      </c>
+      <c r="U25" t="n">
         <v>60.23221703791651</v>
       </c>
-      <c r="C25" t="n">
+      <c r="V25" t="n">
         <v>60.23221703791651</v>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>53.05253676699684</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,61 +2554,61 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>53.05253676699684</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>60.23221703791651</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
         <v>60.23221703791651</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>53.05253676699683</v>
       </c>
     </row>
     <row r="27">
@@ -2642,64 +2642,64 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>60.23221703791651</v>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>26.18613365835683</v>
-      </c>
-      <c r="H27" t="n">
+      <c r="V27" t="n">
         <v>60.23221703791651</v>
       </c>
-      <c r="I27" t="n">
-        <v>26.86640310864002</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="X27" t="n">
-        <v>60.23221703791651</v>
+        <v>53.05253676699684</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>53.05253676699684</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>60.23221703791651</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>53.05253676699684</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2803,49 +2803,49 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
         <v>60.23221703791651</v>
-      </c>
-      <c r="G29" t="n">
-        <v>53.05253676699684</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>60.23221703791651</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>53.05253676699684</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>26.18613365835682</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="I30" t="n">
         <v>26.86640310864002</v>
@@ -2927,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>60.23221703791651</v>
+        <v>26.18613365835684</v>
       </c>
       <c r="V30" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>53.05253676699683</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>60.23221703791651</v>
       </c>
       <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>60.23221703791651</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>53.05253676699683</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3028,64 +3028,64 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
         <v>60.23221703791651</v>
       </c>
-      <c r="F32" t="n">
-        <v>60.23221703791651</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>53.05253676699684</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
       <c r="U32" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>53.05253676699683</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>26.18613365835684</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3122,13 +3122,13 @@
         <v>60.23221703791651</v>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
         <v>60.23221703791651</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.86640310864002</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,19 +3158,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>53.05253676699684</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.05253676699684</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>60.23221703791651</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>53.05253676699684</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="F35" t="n">
-        <v>53.05253676699683</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>53.05253676699686</v>
       </c>
     </row>
     <row r="36">
@@ -3350,16 +3350,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>53.05253676699686</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="G36" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3398,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="U36" t="n">
-        <v>53.05253676699684</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>60.23221703791651</v>
+        <v>53.05253676699687</v>
       </c>
       <c r="G37" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="T37" t="n">
-        <v>53.05253676699684</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>53.05253676699684</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>53.05253676699686</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>26.18613365835682</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.86640310864002</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,16 +3635,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="U39" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>60.2322170379165</v>
+        <v>53.05253676699686</v>
       </c>
       <c r="W39" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>53.05253676699686</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>53.05253676699684</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="U40" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>60.23221703791652</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>60.23221703791652</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>53.05253676699684</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="Y41" t="n">
-        <v>60.23221703791652</v>
+        <v>53.05253676699682</v>
       </c>
     </row>
     <row r="42">
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3869,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.23221703791652</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="T42" t="n">
-        <v>60.23221703791652</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="V42" t="n">
-        <v>60.23221703791652</v>
+        <v>53.05253676699682</v>
       </c>
       <c r="W42" t="n">
-        <v>53.05253676699684</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.23221703791652</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>60.23221703791652</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="U43" t="n">
-        <v>60.23221703791652</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>53.05253676699684</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>53.05253676699682</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>60.2322170379165</v>
+        <v>53.05253676699683</v>
       </c>
       <c r="G44" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>53.05253676699684</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="T44" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4067,14 +4067,14 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
+        <v>60.23221703791651</v>
+      </c>
+      <c r="G45" t="n">
+        <v>60.23221703791651</v>
+      </c>
+      <c r="H45" t="n">
         <v>53.05253676699684</v>
       </c>
-      <c r="G45" t="n">
-        <v>60.2322170379165</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4140,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="U46" t="n">
-        <v>53.05253676699684</v>
+        <v>53.05253676699683</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.01300219137327</v>
+        <v>49.81672089762134</v>
       </c>
       <c r="C17" t="n">
-        <v>2.01300219137327</v>
+        <v>49.81672089762134</v>
       </c>
       <c r="D17" t="n">
-        <v>2.01300219137327</v>
+        <v>49.81672089762134</v>
       </c>
       <c r="E17" t="n">
-        <v>2.01300219137327</v>
+        <v>27.42969652689437</v>
       </c>
       <c r="F17" t="n">
-        <v>2.01300219137327</v>
+        <v>27.42969652689437</v>
       </c>
       <c r="G17" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="H17" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="I17" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="J17" t="n">
-        <v>15.61990337798757</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="K17" t="n">
-        <v>15.61990337798757</v>
+        <v>15.61990337798758</v>
       </c>
       <c r="L17" t="n">
-        <v>25.91740321393085</v>
+        <v>25.91740321393086</v>
       </c>
       <c r="M17" t="n">
-        <v>50.82830533217508</v>
+        <v>50.82830533217509</v>
       </c>
       <c r="N17" t="n">
-        <v>75.7392074504193</v>
+        <v>75.73920745041931</v>
       </c>
       <c r="O17" t="n">
         <v>100.6501095686635</v>
@@ -5542,25 +5542,25 @@
         <v>100.6501095686635</v>
       </c>
       <c r="S17" t="n">
-        <v>100.6501095686635</v>
+        <v>75.23341523314244</v>
       </c>
       <c r="T17" t="n">
-        <v>100.6501095686635</v>
+        <v>49.81672089762134</v>
       </c>
       <c r="U17" t="n">
-        <v>75.23341523314244</v>
+        <v>49.81672089762134</v>
       </c>
       <c r="V17" t="n">
-        <v>52.84639086241546</v>
+        <v>49.81672089762134</v>
       </c>
       <c r="W17" t="n">
-        <v>52.84639086241546</v>
+        <v>49.81672089762134</v>
       </c>
       <c r="X17" t="n">
-        <v>52.84639086241546</v>
+        <v>49.81672089762134</v>
       </c>
       <c r="Y17" t="n">
-        <v>27.42969652689436</v>
+        <v>49.81672089762134</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24.40002656210025</v>
+        <v>75.23341523314244</v>
       </c>
       <c r="C18" t="n">
-        <v>2.01300219137327</v>
+        <v>75.23341523314244</v>
       </c>
       <c r="D18" t="n">
-        <v>2.01300219137327</v>
+        <v>52.84639086241546</v>
       </c>
       <c r="E18" t="n">
-        <v>2.01300219137327</v>
+        <v>27.42969652689437</v>
       </c>
       <c r="F18" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="G18" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="H18" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="I18" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="J18" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="K18" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="L18" t="n">
-        <v>26.92390430961749</v>
+        <v>26.9239043096175</v>
       </c>
       <c r="M18" t="n">
-        <v>51.83480642786172</v>
+        <v>50.82830533217509</v>
       </c>
       <c r="N18" t="n">
-        <v>76.74570854610594</v>
+        <v>75.73920745041931</v>
       </c>
       <c r="O18" t="n">
-        <v>81.96917693672556</v>
+        <v>100.6501095686635</v>
       </c>
       <c r="P18" t="n">
         <v>100.6501095686635</v>
@@ -5627,19 +5627,19 @@
         <v>100.6501095686635</v>
       </c>
       <c r="U18" t="n">
+        <v>100.6501095686635</v>
+      </c>
+      <c r="V18" t="n">
+        <v>100.6501095686635</v>
+      </c>
+      <c r="W18" t="n">
         <v>75.23341523314244</v>
       </c>
-      <c r="V18" t="n">
-        <v>49.81672089762134</v>
-      </c>
-      <c r="W18" t="n">
-        <v>24.40002656210025</v>
-      </c>
       <c r="X18" t="n">
-        <v>24.40002656210025</v>
+        <v>75.23341523314244</v>
       </c>
       <c r="Y18" t="n">
-        <v>24.40002656210025</v>
+        <v>75.23341523314244</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="C19" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="D19" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="E19" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="F19" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="G19" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="H19" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="I19" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="J19" t="n">
-        <v>2.01300219137327</v>
+        <v>4.798036440699269</v>
       </c>
       <c r="K19" t="n">
-        <v>2.01300219137327</v>
+        <v>29.70893855894349</v>
       </c>
       <c r="L19" t="n">
-        <v>2.01300219137327</v>
+        <v>54.61984067718772</v>
       </c>
       <c r="M19" t="n">
-        <v>2.01300219137327</v>
+        <v>75.73920745041931</v>
       </c>
       <c r="N19" t="n">
-        <v>25.91740321393085</v>
+        <v>75.73920745041931</v>
       </c>
       <c r="O19" t="n">
-        <v>50.82830533217508</v>
+        <v>75.73920745041931</v>
       </c>
       <c r="P19" t="n">
-        <v>75.7392074504193</v>
+        <v>75.73920745041931</v>
       </c>
       <c r="Q19" t="n">
         <v>100.6501095686635</v>
       </c>
       <c r="R19" t="n">
-        <v>100.6501095686635</v>
+        <v>75.23341523314244</v>
       </c>
       <c r="S19" t="n">
-        <v>100.6501095686635</v>
+        <v>49.81672089762134</v>
       </c>
       <c r="T19" t="n">
-        <v>78.26308519793656</v>
+        <v>49.81672089762134</v>
       </c>
       <c r="U19" t="n">
-        <v>52.84639086241546</v>
+        <v>24.40002656210024</v>
       </c>
       <c r="V19" t="n">
-        <v>52.84639086241546</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="W19" t="n">
-        <v>52.84639086241546</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="X19" t="n">
-        <v>52.84639086241546</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="Y19" t="n">
-        <v>27.42969652689436</v>
+        <v>2.013002191373271</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>27.42969652689436</v>
+        <v>27.42969652689437</v>
       </c>
       <c r="C20" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="D20" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="E20" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="F20" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="G20" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="H20" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="I20" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="J20" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="K20" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="L20" t="n">
-        <v>25.91740321393085</v>
+        <v>12.31050202731656</v>
       </c>
       <c r="M20" t="n">
-        <v>50.82830533217508</v>
+        <v>37.22140414556078</v>
       </c>
       <c r="N20" t="n">
-        <v>75.7392074504193</v>
+        <v>62.13230626380501</v>
       </c>
       <c r="O20" t="n">
-        <v>100.6501095686635</v>
+        <v>87.04320838204923</v>
       </c>
       <c r="P20" t="n">
         <v>100.6501095686635</v>
@@ -5779,22 +5779,22 @@
         <v>100.6501095686635</v>
       </c>
       <c r="S20" t="n">
-        <v>100.6501095686635</v>
+        <v>75.23341523314244</v>
       </c>
       <c r="T20" t="n">
-        <v>100.6501095686635</v>
+        <v>75.23341523314244</v>
       </c>
       <c r="U20" t="n">
-        <v>78.26308519793656</v>
+        <v>75.23341523314244</v>
       </c>
       <c r="V20" t="n">
-        <v>78.26308519793656</v>
+        <v>75.23341523314244</v>
       </c>
       <c r="W20" t="n">
-        <v>52.84639086241546</v>
+        <v>75.23341523314244</v>
       </c>
       <c r="X20" t="n">
-        <v>52.84639086241546</v>
+        <v>75.23341523314244</v>
       </c>
       <c r="Y20" t="n">
         <v>52.84639086241546</v>
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="C21" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="D21" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="E21" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="F21" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="G21" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="H21" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="I21" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="J21" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="K21" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="L21" t="n">
-        <v>26.92390430961749</v>
+        <v>26.9239043096175</v>
       </c>
       <c r="M21" t="n">
         <v>51.83480642786172</v>
@@ -5846,7 +5846,7 @@
         <v>76.74570854610594</v>
       </c>
       <c r="O21" t="n">
-        <v>81.96917693672559</v>
+        <v>81.96917693672557</v>
       </c>
       <c r="P21" t="n">
         <v>100.6501095686635</v>
@@ -5858,25 +5858,25 @@
         <v>100.6501095686635</v>
       </c>
       <c r="S21" t="n">
-        <v>78.26308519793656</v>
+        <v>100.6501095686635</v>
       </c>
       <c r="T21" t="n">
-        <v>52.84639086241546</v>
+        <v>100.6501095686635</v>
       </c>
       <c r="U21" t="n">
-        <v>27.42969652689436</v>
+        <v>75.23341523314244</v>
       </c>
       <c r="V21" t="n">
-        <v>27.42969652689436</v>
+        <v>49.81672089762134</v>
       </c>
       <c r="W21" t="n">
-        <v>2.01300219137327</v>
+        <v>24.40002656210024</v>
       </c>
       <c r="X21" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
     </row>
     <row r="22">
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.01300219137327</v>
+        <v>24.40002656210024</v>
       </c>
       <c r="C22" t="n">
-        <v>2.01300219137327</v>
+        <v>24.40002656210024</v>
       </c>
       <c r="D22" t="n">
-        <v>2.01300219137327</v>
+        <v>24.40002656210024</v>
       </c>
       <c r="E22" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="F22" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="G22" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="H22" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="I22" t="n">
-        <v>2.01300219137327</v>
+        <v>2.013002191373271</v>
       </c>
       <c r="J22" t="n">
-        <v>2.01300219137327</v>
+        <v>4.798036440699269</v>
       </c>
       <c r="K22" t="n">
-        <v>26.92390430961749</v>
+        <v>29.70893855894349</v>
       </c>
       <c r="L22" t="n">
-        <v>51.83480642786172</v>
+        <v>50.82830533217509</v>
       </c>
       <c r="M22" t="n">
-        <v>76.74570854610594</v>
+        <v>75.73920745041931</v>
       </c>
       <c r="N22" t="n">
         <v>100.6501095686635</v>
@@ -5934,28 +5934,28 @@
         <v>100.6501095686635</v>
       </c>
       <c r="R22" t="n">
+        <v>100.6501095686635</v>
+      </c>
+      <c r="S22" t="n">
+        <v>100.6501095686635</v>
+      </c>
+      <c r="T22" t="n">
+        <v>100.6501095686635</v>
+      </c>
+      <c r="U22" t="n">
         <v>75.23341523314244</v>
       </c>
-      <c r="S22" t="n">
+      <c r="V22" t="n">
         <v>49.81672089762134</v>
       </c>
-      <c r="T22" t="n">
-        <v>49.81672089762134</v>
-      </c>
-      <c r="U22" t="n">
-        <v>24.40002656210025</v>
-      </c>
-      <c r="V22" t="n">
-        <v>24.40002656210025</v>
-      </c>
       <c r="W22" t="n">
-        <v>2.01300219137327</v>
+        <v>24.40002656210024</v>
       </c>
       <c r="X22" t="n">
-        <v>2.01300219137327</v>
+        <v>24.40002656210024</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.01300219137327</v>
+        <v>24.40002656210024</v>
       </c>
     </row>
     <row r="23">
@@ -5989,10 +5989,10 @@
         <v>4.818577363033321</v>
       </c>
       <c r="J23" t="n">
-        <v>4.818577363033321</v>
+        <v>4.818577363033336</v>
       </c>
       <c r="K23" t="n">
-        <v>13.76932287133948</v>
+        <v>13.7693228713395</v>
       </c>
       <c r="L23" t="n">
         <v>48.85965936111253</v>
@@ -6019,16 +6019,16 @@
         <v>180.0882448810433</v>
       </c>
       <c r="T23" t="n">
-        <v>180.0882448810433</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="U23" t="n">
-        <v>180.0882448810433</v>
+        <v>58.40699833979781</v>
       </c>
       <c r="V23" t="n">
-        <v>119.2476216104206</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="W23" t="n">
-        <v>58.40699833979781</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="X23" t="n">
         <v>4.818577363033321</v>
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>119.2476216104206</v>
+      </c>
+      <c r="C24" t="n">
+        <v>119.2476216104206</v>
+      </c>
+      <c r="D24" t="n">
         <v>58.40699833979781</v>
       </c>
-      <c r="C24" t="n">
-        <v>4.818577363033321</v>
-      </c>
-      <c r="D24" t="n">
-        <v>4.818577363033321</v>
-      </c>
       <c r="E24" t="n">
-        <v>4.818577363033321</v>
+        <v>58.40699833979781</v>
       </c>
       <c r="F24" t="n">
-        <v>4.818577363033321</v>
+        <v>58.40699833979781</v>
       </c>
       <c r="G24" t="n">
         <v>4.818577363033321</v>
@@ -6071,10 +6071,10 @@
         <v>4.818577363033321</v>
       </c>
       <c r="K24" t="n">
-        <v>18.39246347380759</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="L24" t="n">
-        <v>66.75388022218293</v>
+        <v>28.00293031888967</v>
       </c>
       <c r="M24" t="n">
         <v>87.63282518642701</v>
@@ -6104,10 +6104,10 @@
         <v>240.9288681516661</v>
       </c>
       <c r="V24" t="n">
+        <v>240.9288681516661</v>
+      </c>
+      <c r="W24" t="n">
         <v>180.0882448810433</v>
-      </c>
-      <c r="W24" t="n">
-        <v>119.2476216104206</v>
       </c>
       <c r="X24" t="n">
         <v>119.2476216104206</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65.65920063365607</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="C25" t="n">
         <v>4.818577363033321</v>
@@ -6147,52 +6147,52 @@
         <v>4.818577363033321</v>
       </c>
       <c r="J25" t="n">
-        <v>4.818577363033321</v>
+        <v>12.5860728960812</v>
       </c>
       <c r="K25" t="n">
-        <v>4.818577363033321</v>
+        <v>12.5860728960812</v>
       </c>
       <c r="L25" t="n">
-        <v>4.818577363033321</v>
+        <v>12.5860728960812</v>
       </c>
       <c r="M25" t="n">
-        <v>64.44847223057067</v>
+        <v>72.21596776361855</v>
       </c>
       <c r="N25" t="n">
-        <v>73.78341998920457</v>
+        <v>131.8458626311559</v>
       </c>
       <c r="O25" t="n">
-        <v>133.4133148567419</v>
+        <v>191.4757574986933</v>
       </c>
       <c r="P25" t="n">
-        <v>193.0432097242793</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="Q25" t="n">
         <v>240.9288681516661</v>
       </c>
       <c r="R25" t="n">
-        <v>187.3404471749016</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="S25" t="n">
-        <v>187.3404471749016</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="T25" t="n">
         <v>187.3404471749016</v>
       </c>
       <c r="U25" t="n">
-        <v>187.3404471749016</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="V25" t="n">
-        <v>187.3404471749016</v>
+        <v>65.65920063365607</v>
       </c>
       <c r="W25" t="n">
-        <v>187.3404471749016</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="X25" t="n">
-        <v>187.3404471749016</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="Y25" t="n">
-        <v>126.4998239042788</v>
+        <v>4.818577363033321</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>187.3404471749016</v>
+        <v>65.65920063365607</v>
       </c>
       <c r="C26" t="n">
-        <v>126.4998239042788</v>
+        <v>65.65920063365607</v>
       </c>
       <c r="D26" t="n">
-        <v>65.65920063365607</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="E26" t="n">
         <v>4.818577363033321</v>
@@ -6226,13 +6226,13 @@
         <v>4.818577363033321</v>
       </c>
       <c r="J26" t="n">
-        <v>4.818577363033321</v>
+        <v>4.818577363033336</v>
       </c>
       <c r="K26" t="n">
-        <v>13.76932287133948</v>
+        <v>13.7693228713395</v>
       </c>
       <c r="L26" t="n">
-        <v>48.85965936111252</v>
+        <v>48.85965936111253</v>
       </c>
       <c r="M26" t="n">
         <v>108.4895542286499</v>
@@ -6253,25 +6253,25 @@
         <v>240.9288681516661</v>
       </c>
       <c r="S26" t="n">
-        <v>240.9288681516661</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="T26" t="n">
-        <v>240.9288681516661</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="U26" t="n">
-        <v>240.9288681516661</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="V26" t="n">
-        <v>240.9288681516661</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="W26" t="n">
-        <v>240.9288681516661</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="X26" t="n">
-        <v>240.9288681516661</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="Y26" t="n">
-        <v>240.9288681516661</v>
+        <v>65.65920063365607</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>180.0882448810433</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="C27" t="n">
-        <v>180.0882448810433</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="D27" t="n">
-        <v>180.0882448810433</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="E27" t="n">
-        <v>119.2476216104206</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="F27" t="n">
-        <v>119.2476216104206</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="G27" t="n">
-        <v>92.79698155147426</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="H27" t="n">
-        <v>31.95635828085152</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="I27" t="n">
         <v>4.818577363033321</v>
@@ -6320,7 +6320,7 @@
         <v>172.4397838464834</v>
       </c>
       <c r="O27" t="n">
-        <v>231.3731794059296</v>
+        <v>206.1961156134106</v>
       </c>
       <c r="P27" t="n">
         <v>240.9288681516661</v>
@@ -6338,19 +6338,19 @@
         <v>240.9288681516661</v>
       </c>
       <c r="U27" t="n">
-        <v>240.9288681516661</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="V27" t="n">
-        <v>240.9288681516661</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="W27" t="n">
-        <v>240.9288681516661</v>
+        <v>58.40699833979781</v>
       </c>
       <c r="X27" t="n">
-        <v>180.0882448810433</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="Y27" t="n">
-        <v>180.0882448810433</v>
+        <v>4.818577363033321</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>126.4998239042788</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="C28" t="n">
-        <v>126.4998239042788</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="D28" t="n">
-        <v>126.4998239042788</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="E28" t="n">
-        <v>126.4998239042788</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="F28" t="n">
-        <v>126.4998239042788</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="G28" t="n">
-        <v>126.4998239042788</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="H28" t="n">
-        <v>65.65920063365607</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="I28" t="n">
         <v>4.818577363033321</v>
@@ -6387,19 +6387,19 @@
         <v>12.5860728960812</v>
       </c>
       <c r="K28" t="n">
-        <v>12.5860728960812</v>
+        <v>72.21596776361855</v>
       </c>
       <c r="L28" t="n">
-        <v>12.5860728960812</v>
+        <v>121.6690784165913</v>
       </c>
       <c r="M28" t="n">
-        <v>72.21596776361855</v>
+        <v>181.2989732841287</v>
       </c>
       <c r="N28" t="n">
-        <v>131.8458626311559</v>
+        <v>181.2989732841287</v>
       </c>
       <c r="O28" t="n">
-        <v>191.4757574986933</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="P28" t="n">
         <v>240.9288681516661</v>
@@ -6408,28 +6408,28 @@
         <v>240.9288681516661</v>
       </c>
       <c r="R28" t="n">
-        <v>187.3404471749016</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="S28" t="n">
-        <v>126.4998239042788</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="T28" t="n">
-        <v>126.4998239042788</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="U28" t="n">
-        <v>126.4998239042788</v>
+        <v>58.40699833979781</v>
       </c>
       <c r="V28" t="n">
-        <v>126.4998239042788</v>
+        <v>58.40699833979781</v>
       </c>
       <c r="W28" t="n">
-        <v>126.4998239042788</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="X28" t="n">
-        <v>126.4998239042788</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.4998239042788</v>
+        <v>4.818577363033321</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>119.2476216104206</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="C29" t="n">
-        <v>119.2476216104206</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="D29" t="n">
-        <v>119.2476216104206</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="E29" t="n">
-        <v>119.2476216104206</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="F29" t="n">
-        <v>58.40699833979781</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="G29" t="n">
         <v>4.818577363033321</v>
@@ -6493,22 +6493,22 @@
         <v>240.9288681516661</v>
       </c>
       <c r="T29" t="n">
-        <v>240.9288681516661</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="U29" t="n">
-        <v>240.9288681516661</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="V29" t="n">
-        <v>180.0882448810433</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="W29" t="n">
-        <v>119.2476216104206</v>
+        <v>58.40699833979781</v>
       </c>
       <c r="X29" t="n">
-        <v>119.2476216104206</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="Y29" t="n">
-        <v>119.2476216104206</v>
+        <v>4.818577363033321</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>58.40699833979781</v>
+        <v>153.637604822097</v>
       </c>
       <c r="C30" t="n">
-        <v>58.40699833979781</v>
+        <v>153.637604822097</v>
       </c>
       <c r="D30" t="n">
-        <v>58.40699833979781</v>
+        <v>153.637604822097</v>
       </c>
       <c r="E30" t="n">
-        <v>58.40699833979781</v>
+        <v>92.79698155147426</v>
       </c>
       <c r="F30" t="n">
-        <v>58.40699833979781</v>
+        <v>92.79698155147426</v>
       </c>
       <c r="G30" t="n">
-        <v>58.40699833979781</v>
+        <v>92.79698155147426</v>
       </c>
       <c r="H30" t="n">
         <v>31.95635828085152</v>
@@ -6554,7 +6554,7 @@
         <v>126.3837750897203</v>
       </c>
       <c r="N30" t="n">
-        <v>147.2627200539644</v>
+        <v>186.0136699572576</v>
       </c>
       <c r="O30" t="n">
         <v>206.1961156134106</v>
@@ -6575,19 +6575,19 @@
         <v>240.9288681516661</v>
       </c>
       <c r="U30" t="n">
-        <v>180.0882448810433</v>
+        <v>214.4782280927197</v>
       </c>
       <c r="V30" t="n">
-        <v>119.2476216104206</v>
+        <v>214.4782280927197</v>
       </c>
       <c r="W30" t="n">
-        <v>58.40699833979781</v>
+        <v>214.4782280927197</v>
       </c>
       <c r="X30" t="n">
-        <v>58.40699833979781</v>
+        <v>214.4782280927197</v>
       </c>
       <c r="Y30" t="n">
-        <v>58.40699833979781</v>
+        <v>214.4782280927197</v>
       </c>
     </row>
     <row r="31">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>180.0882448810433</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="C31" t="n">
         <v>126.4998239042788</v>
@@ -6606,7 +6606,7 @@
         <v>65.65920063365607</v>
       </c>
       <c r="E31" t="n">
-        <v>4.818577363033321</v>
+        <v>65.65920063365607</v>
       </c>
       <c r="F31" t="n">
         <v>4.818577363033321</v>
@@ -6627,16 +6627,16 @@
         <v>4.818577363033321</v>
       </c>
       <c r="L31" t="n">
-        <v>64.44847223057067</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="M31" t="n">
-        <v>124.078367098108</v>
+        <v>14.15352512166723</v>
       </c>
       <c r="N31" t="n">
-        <v>183.7082619656454</v>
+        <v>73.78341998920457</v>
       </c>
       <c r="O31" t="n">
-        <v>193.0432097242793</v>
+        <v>133.4133148567419</v>
       </c>
       <c r="P31" t="n">
         <v>193.0432097242793</v>
@@ -6651,22 +6651,22 @@
         <v>180.0882448810433</v>
       </c>
       <c r="T31" t="n">
-        <v>180.0882448810433</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="U31" t="n">
-        <v>180.0882448810433</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="V31" t="n">
-        <v>180.0882448810433</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="W31" t="n">
-        <v>180.0882448810433</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="X31" t="n">
-        <v>180.0882448810433</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="Y31" t="n">
-        <v>180.0882448810433</v>
+        <v>126.4998239042788</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>180.0882448810433</v>
+        <v>65.65920063365607</v>
       </c>
       <c r="C32" t="n">
-        <v>180.0882448810433</v>
+        <v>65.65920063365607</v>
       </c>
       <c r="D32" t="n">
-        <v>180.0882448810433</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="E32" t="n">
-        <v>119.2476216104206</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="F32" t="n">
-        <v>58.40699833979781</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="G32" t="n">
-        <v>58.40699833979781</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="H32" t="n">
-        <v>58.40699833979781</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="I32" t="n">
         <v>4.818577363033321</v>
       </c>
       <c r="J32" t="n">
-        <v>4.818577363033336</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="K32" t="n">
-        <v>13.7693228713395</v>
+        <v>13.76932287133948</v>
       </c>
       <c r="L32" t="n">
-        <v>48.85965936111253</v>
+        <v>48.85965936111252</v>
       </c>
       <c r="M32" t="n">
         <v>108.4895542286499</v>
@@ -6730,7 +6730,7 @@
         <v>240.9288681516661</v>
       </c>
       <c r="T32" t="n">
-        <v>240.9288681516661</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="U32" t="n">
         <v>180.0882448810433</v>
@@ -6745,7 +6745,7 @@
         <v>180.0882448810433</v>
       </c>
       <c r="Y32" t="n">
-        <v>180.0882448810433</v>
+        <v>126.4998239042788</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>126.4998239042788</v>
+        <v>153.637604822097</v>
       </c>
       <c r="C33" t="n">
-        <v>126.4998239042788</v>
+        <v>153.637604822097</v>
       </c>
       <c r="D33" t="n">
-        <v>126.4998239042788</v>
+        <v>153.637604822097</v>
       </c>
       <c r="E33" t="n">
-        <v>126.4998239042788</v>
+        <v>153.637604822097</v>
       </c>
       <c r="F33" t="n">
-        <v>65.65920063365607</v>
+        <v>92.79698155147426</v>
       </c>
       <c r="G33" t="n">
-        <v>4.818577363033321</v>
+        <v>92.79698155147426</v>
       </c>
       <c r="H33" t="n">
-        <v>4.818577363033321</v>
+        <v>31.95635828085152</v>
       </c>
       <c r="I33" t="n">
         <v>4.818577363033321</v>
@@ -6782,19 +6782,19 @@
         <v>4.818577363033321</v>
       </c>
       <c r="K33" t="n">
-        <v>4.818577363033321</v>
+        <v>18.39246347380759</v>
       </c>
       <c r="L33" t="n">
-        <v>53.17999411140866</v>
+        <v>66.75388022218293</v>
       </c>
       <c r="M33" t="n">
-        <v>112.809888978946</v>
+        <v>126.3837750897203</v>
       </c>
       <c r="N33" t="n">
-        <v>172.4397838464834</v>
+        <v>181.9954725922198</v>
       </c>
       <c r="O33" t="n">
-        <v>231.3731794059296</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="P33" t="n">
         <v>240.9288681516661</v>
@@ -6806,25 +6806,25 @@
         <v>240.9288681516661</v>
       </c>
       <c r="S33" t="n">
-        <v>240.9288681516661</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="T33" t="n">
-        <v>240.9288681516661</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="U33" t="n">
-        <v>187.3404471749016</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="V33" t="n">
-        <v>187.3404471749016</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="W33" t="n">
-        <v>126.4998239042788</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="X33" t="n">
-        <v>126.4998239042788</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="Y33" t="n">
-        <v>126.4998239042788</v>
+        <v>180.0882448810433</v>
       </c>
     </row>
     <row r="34">
@@ -6858,52 +6858,52 @@
         <v>4.818577363033321</v>
       </c>
       <c r="J34" t="n">
-        <v>4.818577363033321</v>
+        <v>12.5860728960812</v>
       </c>
       <c r="K34" t="n">
-        <v>62.039183549054</v>
+        <v>12.5860728960812</v>
       </c>
       <c r="L34" t="n">
-        <v>121.6690784165913</v>
+        <v>12.5860728960812</v>
       </c>
       <c r="M34" t="n">
-        <v>181.2989732841287</v>
+        <v>72.21596776361855</v>
       </c>
       <c r="N34" t="n">
-        <v>240.9288681516661</v>
+        <v>131.8458626311559</v>
       </c>
       <c r="O34" t="n">
-        <v>240.9288681516661</v>
+        <v>191.4757574986933</v>
       </c>
       <c r="P34" t="n">
-        <v>240.9288681516661</v>
+        <v>193.0432097242793</v>
       </c>
       <c r="Q34" t="n">
         <v>240.9288681516661</v>
       </c>
       <c r="R34" t="n">
-        <v>240.9288681516661</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="S34" t="n">
-        <v>240.9288681516661</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="T34" t="n">
-        <v>180.0882448810433</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="U34" t="n">
-        <v>180.0882448810433</v>
+        <v>58.40699833979781</v>
       </c>
       <c r="V34" t="n">
-        <v>180.0882448810433</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="W34" t="n">
-        <v>180.0882448810433</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="X34" t="n">
-        <v>119.2476216104206</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="Y34" t="n">
-        <v>58.40699833979781</v>
+        <v>4.818577363033321</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>180.0882448810433</v>
+        <v>65.65920063365608</v>
       </c>
       <c r="C35" t="n">
-        <v>180.0882448810433</v>
+        <v>65.65920063365608</v>
       </c>
       <c r="D35" t="n">
-        <v>180.0882448810433</v>
+        <v>65.65920063365608</v>
       </c>
       <c r="E35" t="n">
-        <v>180.0882448810433</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="F35" t="n">
-        <v>126.4998239042788</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="G35" t="n">
-        <v>65.65920063365607</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="H35" t="n">
-        <v>4.818577363033321</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="I35" t="n">
-        <v>4.818577363033321</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="J35" t="n">
-        <v>4.818577363033336</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="K35" t="n">
-        <v>13.7693228713395</v>
+        <v>13.76932287133945</v>
       </c>
       <c r="L35" t="n">
-        <v>48.85965936111253</v>
+        <v>48.85965936111251</v>
       </c>
       <c r="M35" t="n">
         <v>108.4895542286499</v>
       </c>
       <c r="N35" t="n">
-        <v>168.1194490961872</v>
+        <v>168.1194490961873</v>
       </c>
       <c r="O35" t="n">
-        <v>219.5012987724243</v>
+        <v>219.5012987724244</v>
       </c>
       <c r="P35" t="n">
         <v>240.9288681516661</v>
@@ -6964,25 +6964,25 @@
         <v>240.9288681516661</v>
       </c>
       <c r="S35" t="n">
-        <v>180.0882448810433</v>
+        <v>180.0882448810434</v>
       </c>
       <c r="T35" t="n">
-        <v>180.0882448810433</v>
+        <v>180.0882448810434</v>
       </c>
       <c r="U35" t="n">
-        <v>180.0882448810433</v>
+        <v>180.0882448810434</v>
       </c>
       <c r="V35" t="n">
-        <v>180.0882448810433</v>
+        <v>180.0882448810434</v>
       </c>
       <c r="W35" t="n">
-        <v>180.0882448810433</v>
+        <v>180.0882448810434</v>
       </c>
       <c r="X35" t="n">
-        <v>180.0882448810433</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="Y35" t="n">
-        <v>180.0882448810433</v>
+        <v>65.65920063365608</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>126.4998239042788</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="C36" t="n">
-        <v>126.4998239042788</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="D36" t="n">
-        <v>126.4998239042788</v>
+        <v>65.65920063365608</v>
       </c>
       <c r="E36" t="n">
-        <v>126.4998239042788</v>
+        <v>65.65920063365608</v>
       </c>
       <c r="F36" t="n">
-        <v>65.65920063365607</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="G36" t="n">
-        <v>4.818577363033321</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="H36" t="n">
-        <v>4.818577363033321</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="I36" t="n">
-        <v>4.818577363033321</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="J36" t="n">
-        <v>4.818577363033321</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="K36" t="n">
-        <v>4.818577363033321</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="L36" t="n">
         <v>53.17999411140866</v>
       </c>
       <c r="M36" t="n">
-        <v>87.63282518642701</v>
+        <v>112.809888978946</v>
       </c>
       <c r="N36" t="n">
-        <v>147.2627200539644</v>
+        <v>172.4397838464834</v>
       </c>
       <c r="O36" t="n">
-        <v>206.1961156134106</v>
+        <v>206.1961156134107</v>
       </c>
       <c r="P36" t="n">
         <v>240.9288681516661</v>
@@ -7046,22 +7046,22 @@
         <v>240.9288681516661</v>
       </c>
       <c r="T36" t="n">
-        <v>240.9288681516661</v>
+        <v>180.0882448810434</v>
       </c>
       <c r="U36" t="n">
-        <v>187.3404471749016</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="V36" t="n">
-        <v>187.3404471749016</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="W36" t="n">
-        <v>126.4998239042788</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="X36" t="n">
-        <v>126.4998239042788</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="Y36" t="n">
-        <v>126.4998239042788</v>
+        <v>119.2476216104206</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187.3404471749016</v>
+        <v>58.40699833979784</v>
       </c>
       <c r="C37" t="n">
-        <v>187.3404471749016</v>
+        <v>58.40699833979784</v>
       </c>
       <c r="D37" t="n">
-        <v>187.3404471749016</v>
+        <v>58.40699833979784</v>
       </c>
       <c r="E37" t="n">
-        <v>187.3404471749016</v>
+        <v>58.40699833979784</v>
       </c>
       <c r="F37" t="n">
-        <v>126.4998239042788</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="G37" t="n">
-        <v>65.65920063365607</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="H37" t="n">
-        <v>4.818577363033321</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="I37" t="n">
-        <v>4.818577363033321</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="J37" t="n">
-        <v>4.818577363033321</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="K37" t="n">
-        <v>4.818577363033321</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="L37" t="n">
-        <v>64.44847223057067</v>
+        <v>14.15352512166726</v>
       </c>
       <c r="M37" t="n">
-        <v>124.078367098108</v>
+        <v>73.78341998920462</v>
       </c>
       <c r="N37" t="n">
-        <v>183.7082619656454</v>
+        <v>133.413314856742</v>
       </c>
       <c r="O37" t="n">
-        <v>240.9288681516661</v>
+        <v>133.413314856742</v>
       </c>
       <c r="P37" t="n">
-        <v>240.9288681516661</v>
+        <v>193.0432097242793</v>
       </c>
       <c r="Q37" t="n">
         <v>240.9288681516661</v>
       </c>
       <c r="R37" t="n">
-        <v>240.9288681516661</v>
+        <v>180.0882448810434</v>
       </c>
       <c r="S37" t="n">
-        <v>240.9288681516661</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="T37" t="n">
-        <v>187.3404471749016</v>
+        <v>58.40699833979784</v>
       </c>
       <c r="U37" t="n">
-        <v>187.3404471749016</v>
+        <v>58.40699833979784</v>
       </c>
       <c r="V37" t="n">
-        <v>187.3404471749016</v>
+        <v>58.40699833979784</v>
       </c>
       <c r="W37" t="n">
-        <v>187.3404471749016</v>
+        <v>58.40699833979784</v>
       </c>
       <c r="X37" t="n">
-        <v>187.3404471749016</v>
+        <v>58.40699833979784</v>
       </c>
       <c r="Y37" t="n">
-        <v>187.3404471749016</v>
+        <v>58.40699833979784</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>187.3404471749015</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="C38" t="n">
-        <v>126.4998239042788</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="D38" t="n">
-        <v>65.65920063365604</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="E38" t="n">
-        <v>4.81857736303332</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="F38" t="n">
-        <v>4.81857736303332</v>
+        <v>65.65920063365608</v>
       </c>
       <c r="G38" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="H38" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="I38" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="J38" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033365</v>
       </c>
       <c r="K38" t="n">
-        <v>13.76932287133946</v>
+        <v>13.76932287133953</v>
       </c>
       <c r="L38" t="n">
-        <v>48.85965936111251</v>
+        <v>48.85965936111256</v>
       </c>
       <c r="M38" t="n">
-        <v>108.4895542286498</v>
+        <v>108.4895542286499</v>
       </c>
       <c r="N38" t="n">
-        <v>168.1194490961872</v>
+        <v>168.1194490961873</v>
       </c>
       <c r="O38" t="n">
-        <v>219.5012987724242</v>
+        <v>219.5012987724244</v>
       </c>
       <c r="P38" t="n">
-        <v>240.928868151666</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="Q38" t="n">
-        <v>240.928868151666</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="R38" t="n">
-        <v>240.928868151666</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="S38" t="n">
-        <v>240.928868151666</v>
+        <v>180.0882448810434</v>
       </c>
       <c r="T38" t="n">
-        <v>240.928868151666</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="U38" t="n">
-        <v>240.928868151666</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="V38" t="n">
-        <v>240.928868151666</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="W38" t="n">
-        <v>240.928868151666</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="X38" t="n">
-        <v>240.928868151666</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="Y38" t="n">
-        <v>240.928868151666</v>
+        <v>119.2476216104206</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>58.40699833979781</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="C39" t="n">
-        <v>58.40699833979781</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="D39" t="n">
-        <v>58.40699833979781</v>
+        <v>65.65920063365608</v>
       </c>
       <c r="E39" t="n">
-        <v>58.40699833979781</v>
+        <v>65.65920063365608</v>
       </c>
       <c r="F39" t="n">
-        <v>58.40699833979781</v>
+        <v>65.65920063365608</v>
       </c>
       <c r="G39" t="n">
-        <v>31.95635828085152</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="H39" t="n">
-        <v>31.95635828085152</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="I39" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="J39" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="K39" t="n">
-        <v>18.39246347380759</v>
+        <v>18.3924634738076</v>
       </c>
       <c r="L39" t="n">
-        <v>66.75388022218293</v>
+        <v>66.75388022218294</v>
       </c>
       <c r="M39" t="n">
         <v>126.3837750897203</v>
       </c>
       <c r="N39" t="n">
-        <v>147.2627200539643</v>
+        <v>186.0136699572577</v>
       </c>
       <c r="O39" t="n">
-        <v>206.1961156134105</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="P39" t="n">
-        <v>240.928868151666</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="Q39" t="n">
-        <v>240.928868151666</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="R39" t="n">
-        <v>240.928868151666</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="S39" t="n">
-        <v>240.928868151666</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="T39" t="n">
-        <v>240.928868151666</v>
+        <v>180.0882448810434</v>
       </c>
       <c r="U39" t="n">
-        <v>180.0882448810433</v>
+        <v>180.0882448810434</v>
       </c>
       <c r="V39" t="n">
-        <v>119.2476216104205</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="W39" t="n">
-        <v>58.40699833979781</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="X39" t="n">
-        <v>58.40699833979781</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="Y39" t="n">
-        <v>58.40699833979781</v>
+        <v>126.4998239042788</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.81857736303332</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="C40" t="n">
-        <v>4.81857736303332</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="D40" t="n">
-        <v>4.81857736303332</v>
+        <v>65.65920063365608</v>
       </c>
       <c r="E40" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="F40" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="G40" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="H40" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="I40" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033322</v>
       </c>
       <c r="J40" t="n">
-        <v>4.81857736303332</v>
+        <v>12.58607289608121</v>
       </c>
       <c r="K40" t="n">
-        <v>4.81857736303332</v>
+        <v>72.21596776361856</v>
       </c>
       <c r="L40" t="n">
-        <v>14.15352512166723</v>
+        <v>131.8458626311559</v>
       </c>
       <c r="M40" t="n">
-        <v>14.15352512166723</v>
+        <v>191.4757574986933</v>
       </c>
       <c r="N40" t="n">
-        <v>73.78341998920456</v>
+        <v>191.4757574986933</v>
       </c>
       <c r="O40" t="n">
-        <v>133.4133148567419</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="P40" t="n">
-        <v>193.0432097242792</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.928868151666</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="R40" t="n">
-        <v>240.928868151666</v>
+        <v>180.0882448810434</v>
       </c>
       <c r="S40" t="n">
-        <v>240.928868151666</v>
+        <v>180.0882448810434</v>
       </c>
       <c r="T40" t="n">
-        <v>187.3404471749015</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="U40" t="n">
-        <v>126.4998239042788</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="V40" t="n">
-        <v>65.65920063365604</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="W40" t="n">
-        <v>4.81857736303332</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="X40" t="n">
-        <v>4.81857736303332</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.81857736303332</v>
+        <v>119.2476216104206</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>119.2476216104206</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="C41" t="n">
-        <v>119.2476216104206</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="D41" t="n">
-        <v>119.2476216104206</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="E41" t="n">
-        <v>58.40699833979782</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="F41" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="G41" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="H41" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="I41" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="J41" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="K41" t="n">
-        <v>13.76932287133954</v>
+        <v>13.76932287133944</v>
       </c>
       <c r="L41" t="n">
-        <v>48.85965936111256</v>
+        <v>48.85965936111243</v>
       </c>
       <c r="M41" t="n">
-        <v>108.4895542286499</v>
+        <v>108.4895542286498</v>
       </c>
       <c r="N41" t="n">
-        <v>168.1194490961873</v>
+        <v>168.1194490961871</v>
       </c>
       <c r="O41" t="n">
-        <v>219.5012987724243</v>
+        <v>219.5012987724242</v>
       </c>
       <c r="P41" t="n">
-        <v>240.9288681516661</v>
+        <v>240.928868151666</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.9288681516661</v>
+        <v>240.928868151666</v>
       </c>
       <c r="R41" t="n">
-        <v>240.9288681516661</v>
+        <v>240.928868151666</v>
       </c>
       <c r="S41" t="n">
-        <v>240.9288681516661</v>
+        <v>180.0882448810432</v>
       </c>
       <c r="T41" t="n">
-        <v>240.9288681516661</v>
+        <v>119.2476216104205</v>
       </c>
       <c r="U41" t="n">
-        <v>240.9288681516661</v>
+        <v>119.2476216104205</v>
       </c>
       <c r="V41" t="n">
-        <v>240.9288681516661</v>
+        <v>119.2476216104205</v>
       </c>
       <c r="W41" t="n">
-        <v>240.9288681516661</v>
+        <v>119.2476216104205</v>
       </c>
       <c r="X41" t="n">
-        <v>240.9288681516661</v>
+        <v>58.40699833979779</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.0882448810433</v>
+        <v>4.818577363033319</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.818577363033322</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="C42" t="n">
-        <v>4.818577363033322</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="D42" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="E42" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="F42" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="G42" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="H42" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="I42" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="J42" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="K42" t="n">
-        <v>4.818577363033322</v>
+        <v>18.39246347380759</v>
       </c>
       <c r="L42" t="n">
-        <v>28.00293031888965</v>
+        <v>66.75388022218293</v>
       </c>
       <c r="M42" t="n">
-        <v>87.632825186427</v>
+        <v>126.3837750897202</v>
       </c>
       <c r="N42" t="n">
-        <v>147.2627200539644</v>
+        <v>147.2627200539642</v>
       </c>
       <c r="O42" t="n">
-        <v>206.1961156134106</v>
+        <v>206.1961156134105</v>
       </c>
       <c r="P42" t="n">
-        <v>240.9288681516661</v>
+        <v>240.928868151666</v>
       </c>
       <c r="Q42" t="n">
-        <v>240.9288681516661</v>
+        <v>240.928868151666</v>
       </c>
       <c r="R42" t="n">
-        <v>240.9288681516661</v>
+        <v>240.928868151666</v>
       </c>
       <c r="S42" t="n">
-        <v>180.0882448810433</v>
+        <v>180.0882448810432</v>
       </c>
       <c r="T42" t="n">
-        <v>119.2476216104206</v>
+        <v>180.0882448810432</v>
       </c>
       <c r="U42" t="n">
-        <v>119.2476216104206</v>
+        <v>119.2476216104205</v>
       </c>
       <c r="V42" t="n">
-        <v>58.40699833979782</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="W42" t="n">
-        <v>4.818577363033322</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="X42" t="n">
-        <v>4.818577363033322</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="Y42" t="n">
-        <v>4.818577363033322</v>
+        <v>65.65920063365604</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="C43" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="D43" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="E43" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="F43" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="G43" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="H43" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="I43" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="J43" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="K43" t="n">
-        <v>64.44847223057067</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="L43" t="n">
+        <v>64.44847223057064</v>
+      </c>
+      <c r="M43" t="n">
+        <v>64.44847223057064</v>
+      </c>
+      <c r="N43" t="n">
         <v>124.078367098108</v>
       </c>
-      <c r="M43" t="n">
-        <v>133.4133148567419</v>
-      </c>
-      <c r="N43" t="n">
-        <v>133.4133148567419</v>
-      </c>
       <c r="O43" t="n">
-        <v>133.4133148567419</v>
+        <v>183.7082619656453</v>
       </c>
       <c r="P43" t="n">
-        <v>193.0432097242793</v>
+        <v>193.0432097242792</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.9288681516661</v>
+        <v>240.928868151666</v>
       </c>
       <c r="R43" t="n">
-        <v>180.0882448810433</v>
+        <v>180.0882448810432</v>
       </c>
       <c r="S43" t="n">
-        <v>180.0882448810433</v>
+        <v>180.0882448810432</v>
       </c>
       <c r="T43" t="n">
-        <v>119.2476216104206</v>
+        <v>119.2476216104205</v>
       </c>
       <c r="U43" t="n">
-        <v>58.40699833979782</v>
+        <v>58.40699833979779</v>
       </c>
       <c r="V43" t="n">
-        <v>58.40699833979782</v>
+        <v>58.40699833979779</v>
       </c>
       <c r="W43" t="n">
-        <v>4.818577363033322</v>
+        <v>58.40699833979779</v>
       </c>
       <c r="X43" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
       <c r="Y43" t="n">
-        <v>4.818577363033322</v>
+        <v>4.818577363033319</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>126.4998239042788</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="C44" t="n">
-        <v>126.4998239042788</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="D44" t="n">
-        <v>126.4998239042788</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="E44" t="n">
-        <v>126.4998239042788</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="F44" t="n">
-        <v>65.65920063365604</v>
+        <v>65.65920063365607</v>
       </c>
       <c r="G44" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="H44" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="I44" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="J44" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="K44" t="n">
-        <v>13.76932287133952</v>
+        <v>13.76932287133948</v>
       </c>
       <c r="L44" t="n">
-        <v>48.85965936111254</v>
+        <v>48.85965936111252</v>
       </c>
       <c r="M44" t="n">
-        <v>108.4895542286498</v>
+        <v>108.4895542286499</v>
       </c>
       <c r="N44" t="n">
-        <v>168.1194490961871</v>
+        <v>168.1194490961872</v>
       </c>
       <c r="O44" t="n">
-        <v>219.5012987724242</v>
+        <v>219.5012987724243</v>
       </c>
       <c r="P44" t="n">
-        <v>240.928868151666</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.928868151666</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="R44" t="n">
-        <v>240.928868151666</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="S44" t="n">
-        <v>187.3404471749015</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="T44" t="n">
-        <v>126.4998239042788</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="U44" t="n">
-        <v>126.4998239042788</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="V44" t="n">
-        <v>126.4998239042788</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="W44" t="n">
-        <v>126.4998239042788</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="X44" t="n">
-        <v>126.4998239042788</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="Y44" t="n">
-        <v>126.4998239042788</v>
+        <v>119.2476216104206</v>
       </c>
     </row>
     <row r="45">
@@ -7703,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>119.2476216104205</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="C45" t="n">
-        <v>119.2476216104205</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="D45" t="n">
-        <v>119.2476216104205</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2476216104205</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="F45" t="n">
-        <v>65.65920063365604</v>
+        <v>119.2476216104206</v>
       </c>
       <c r="G45" t="n">
-        <v>4.81857736303332</v>
+        <v>58.40699833979781</v>
       </c>
       <c r="H45" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="I45" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="J45" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="K45" t="n">
         <v>18.39246347380759</v>
@@ -7736,22 +7736,22 @@
         <v>66.75388022218293</v>
       </c>
       <c r="M45" t="n">
-        <v>87.63282518642697</v>
+        <v>126.3837750897203</v>
       </c>
       <c r="N45" t="n">
-        <v>147.2627200539643</v>
+        <v>186.0136699572576</v>
       </c>
       <c r="O45" t="n">
-        <v>206.1961156134105</v>
+        <v>206.1961156134106</v>
       </c>
       <c r="P45" t="n">
-        <v>240.928868151666</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="Q45" t="n">
-        <v>240.928868151666</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="R45" t="n">
-        <v>240.928868151666</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="S45" t="n">
         <v>180.0882448810433</v>
@@ -7766,13 +7766,13 @@
         <v>180.0882448810433</v>
       </c>
       <c r="W45" t="n">
-        <v>119.2476216104205</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="X45" t="n">
-        <v>119.2476216104205</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="Y45" t="n">
-        <v>119.2476216104205</v>
+        <v>180.0882448810433</v>
       </c>
     </row>
     <row r="46">
@@ -7782,58 +7782,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.81857736303332</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="C46" t="n">
-        <v>4.81857736303332</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="D46" t="n">
-        <v>4.81857736303332</v>
+        <v>65.65920063365607</v>
       </c>
       <c r="E46" t="n">
-        <v>4.81857736303332</v>
+        <v>65.65920063365607</v>
       </c>
       <c r="F46" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="G46" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="H46" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="I46" t="n">
-        <v>4.81857736303332</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="J46" t="n">
-        <v>12.5860728960812</v>
+        <v>4.818577363033321</v>
       </c>
       <c r="K46" t="n">
-        <v>12.5860728960812</v>
+        <v>64.44847223057067</v>
       </c>
       <c r="L46" t="n">
-        <v>62.039183549054</v>
+        <v>121.6690784165913</v>
       </c>
       <c r="M46" t="n">
-        <v>121.6690784165913</v>
+        <v>181.2989732841287</v>
       </c>
       <c r="N46" t="n">
-        <v>181.2989732841287</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="O46" t="n">
-        <v>240.928868151666</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="P46" t="n">
-        <v>240.928868151666</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.928868151666</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="R46" t="n">
-        <v>180.0882448810433</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="S46" t="n">
-        <v>180.0882448810433</v>
+        <v>240.9288681516661</v>
       </c>
       <c r="T46" t="n">
         <v>180.0882448810433</v>
@@ -7845,13 +7845,13 @@
         <v>126.4998239042788</v>
       </c>
       <c r="W46" t="n">
-        <v>65.65920063365604</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="X46" t="n">
-        <v>4.81857736303332</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="Y46" t="n">
-        <v>4.81857736303332</v>
+        <v>126.4998239042788</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>55.88362148616</v>
+        <v>55.88362148615999</v>
       </c>
       <c r="K2" t="n">
-        <v>50.44189372798085</v>
+        <v>50.44189372798084</v>
       </c>
       <c r="L2" t="n">
-        <v>38.34920004422725</v>
+        <v>38.34920004422723</v>
       </c>
       <c r="M2" t="n">
         <v>21.8778091604332</v>
       </c>
       <c r="N2" t="n">
-        <v>19.20254685767776</v>
+        <v>19.20254685767773</v>
       </c>
       <c r="O2" t="n">
-        <v>26.8878950339908</v>
+        <v>26.88789503399079</v>
       </c>
       <c r="P2" t="n">
-        <v>45.60036861920612</v>
+        <v>45.60036861920611</v>
       </c>
       <c r="Q2" t="n">
         <v>65.87254875688946</v>
@@ -8151,7 +8151,7 @@
         <v>33.01709758919402</v>
       </c>
       <c r="O4" t="n">
-        <v>43.83351015779508</v>
+        <v>43.83351015779507</v>
       </c>
       <c r="P4" t="n">
         <v>50.02257600621597</v>
@@ -8224,7 +8224,7 @@
         <v>30.91197545483701</v>
       </c>
       <c r="M5" t="n">
-        <v>13.6024638049731</v>
+        <v>13.60246380497313</v>
       </c>
       <c r="N5" t="n">
         <v>10.7932977627591</v>
@@ -8382,7 +8382,7 @@
         <v>35.97575015027785</v>
       </c>
       <c r="M7" t="n">
-        <v>35.7921076346076</v>
+        <v>35.79210763460761</v>
       </c>
       <c r="N7" t="n">
         <v>29.78206965893037</v>
@@ -8455,7 +8455,7 @@
         <v>46.74967917541601</v>
       </c>
       <c r="K8" t="n">
-        <v>36.75248193446048</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L8" t="n">
         <v>21.36627421377045</v>
@@ -8470,7 +8470,7 @@
         <v>8.75547455640654</v>
       </c>
       <c r="P8" t="n">
-        <v>30.1247672499621</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q8" t="n">
         <v>54.25101662582001</v>
@@ -8552,7 +8552,7 @@
         <v>1.698038997342408</v>
       </c>
       <c r="Q9" t="n">
-        <v>33.91032407045576</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R9" t="n">
         <v>66.92938550216252</v>
@@ -8628,7 +8628,7 @@
         <v>37.0102385447647</v>
       </c>
       <c r="P10" t="n">
-        <v>44.18408838467262</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q10" t="n">
         <v>67.08779846355691</v>
@@ -8692,7 +8692,7 @@
         <v>42.3392365872206</v>
       </c>
       <c r="K11" t="n">
-        <v>30.14237178405281</v>
+        <v>30.1423717840528</v>
       </c>
       <c r="L11" t="n">
         <v>13.16584806626727</v>
@@ -8768,10 +8768,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>37.57211130101052</v>
+        <v>37.57211130101051</v>
       </c>
       <c r="K12" t="n">
-        <v>12.90294880197317</v>
+        <v>12.90294880197315</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>30.36122038005755</v>
       </c>
       <c r="R12" t="n">
-        <v>65.20312410024948</v>
+        <v>65.20312410024947</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>37.59710832716642</v>
       </c>
       <c r="L13" t="n">
-        <v>28.47623472395288</v>
+        <v>28.47623472395287</v>
       </c>
       <c r="M13" t="n">
         <v>27.88492012720138</v>
@@ -8865,7 +8865,7 @@
         <v>33.71553329164135</v>
       </c>
       <c r="P13" t="n">
-        <v>41.36489886270498</v>
+        <v>41.36489886270497</v>
       </c>
       <c r="Q13" t="n">
         <v>65.13593776851451</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>43.40832510216926</v>
+        <v>29.66398046922554</v>
       </c>
       <c r="K17" t="n">
-        <v>11.14544858436605</v>
+        <v>24.88979321730979</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>49.6593705550383</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>29.81410061865641</v>
+        <v>54.9766280108223</v>
       </c>
       <c r="L19" t="n">
-        <v>18.51666445282825</v>
+        <v>43.67919184499414</v>
       </c>
       <c r="M19" t="n">
-        <v>17.38394971109511</v>
+        <v>38.71664342143005</v>
       </c>
       <c r="N19" t="n">
-        <v>35.95747620532801</v>
+        <v>11.81161658658297</v>
       </c>
       <c r="O19" t="n">
-        <v>49.4093436374916</v>
+        <v>24.24681624532572</v>
       </c>
       <c r="P19" t="n">
-        <v>58.42530305033117</v>
+        <v>33.26277565816529</v>
       </c>
       <c r="Q19" t="n">
         <v>84.68897501959388</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.66398046922555</v>
+        <v>29.66398046922554</v>
       </c>
       <c r="K20" t="n">
-        <v>11.14544858436608</v>
+        <v>11.14544858436605</v>
       </c>
       <c r="L20" t="n">
-        <v>13.74434463294376</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.176537307564473</v>
+        <v>14.92088194050819</v>
       </c>
       <c r="Q20" t="n">
-        <v>32.51210151769619</v>
+        <v>32.51210151769618</v>
       </c>
       <c r="R20" t="n">
-        <v>74.98883187131497</v>
+        <v>74.98883187131496</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>30.02281559133011</v>
+        <v>30.02281559133009</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>20.16138275253151</v>
+        <v>20.16138275253149</v>
       </c>
       <c r="R21" t="n">
-        <v>60.24198812391431</v>
+        <v>60.2419881239143</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>49.65937055503831</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
         <v>54.9766280108223</v>
       </c>
       <c r="L22" t="n">
-        <v>43.67919184499415</v>
+        <v>39.8493581631632</v>
       </c>
       <c r="M22" t="n">
-        <v>42.54647710326101</v>
+        <v>42.546477103261</v>
       </c>
       <c r="N22" t="n">
-        <v>35.95747620532801</v>
+        <v>36.97414397874886</v>
       </c>
       <c r="O22" t="n">
-        <v>24.24681624532573</v>
+        <v>24.24681624532572</v>
       </c>
       <c r="P22" t="n">
-        <v>33.2627756581653</v>
+        <v>33.26277565816529</v>
       </c>
       <c r="Q22" t="n">
-        <v>59.52644762742801</v>
+        <v>59.526447627428</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>44.62658137956165</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K25" t="n">
         <v>21.54368199160336</v>
@@ -9807,16 +9807,16 @@
         <v>66.45757297856751</v>
       </c>
       <c r="N25" t="n">
-        <v>10.34758939555287</v>
+        <v>61.15056627323312</v>
       </c>
       <c r="O25" t="n">
-        <v>74.41733775793546</v>
+        <v>74.41733775793544</v>
       </c>
       <c r="P25" t="n">
-        <v>84.88547396256742</v>
+        <v>74.60589394785573</v>
       </c>
       <c r="Q25" t="n">
-        <v>101.9350150692923</v>
+        <v>53.56566312243694</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10035,22 +10035,22 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K28" t="n">
-        <v>21.54368199160336</v>
+        <v>81.77589902951988</v>
       </c>
       <c r="L28" t="n">
-        <v>7.93337601567444</v>
+        <v>57.88601303887928</v>
       </c>
       <c r="M28" t="n">
-        <v>66.45757297856751</v>
+        <v>66.45757297856753</v>
       </c>
       <c r="N28" t="n">
-        <v>61.15056627323312</v>
+        <v>0.9183492353166116</v>
       </c>
       <c r="O28" t="n">
-        <v>74.41733775793544</v>
+        <v>74.41733775793546</v>
       </c>
       <c r="P28" t="n">
-        <v>74.60589394785573</v>
+        <v>24.6532569246509</v>
       </c>
       <c r="Q28" t="n">
         <v>53.56566312243694</v>
@@ -10275,19 +10275,19 @@
         <v>21.54368199160336</v>
       </c>
       <c r="L31" t="n">
-        <v>68.16559305359095</v>
+        <v>7.93337601567444</v>
       </c>
       <c r="M31" t="n">
-        <v>66.45757297856751</v>
+        <v>15.65459610088727</v>
       </c>
       <c r="N31" t="n">
         <v>61.15056627323312</v>
       </c>
       <c r="O31" t="n">
-        <v>23.61436088025521</v>
+        <v>74.41733775793546</v>
       </c>
       <c r="P31" t="n">
-        <v>24.6532569246509</v>
+        <v>84.88547396256742</v>
       </c>
       <c r="Q31" t="n">
         <v>101.9350150692923</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>44.62658137956165</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K34" t="n">
-        <v>79.34227409869496</v>
+        <v>21.54368199160336</v>
       </c>
       <c r="L34" t="n">
-        <v>68.16559305359095</v>
+        <v>7.93337601567444</v>
       </c>
       <c r="M34" t="n">
-        <v>66.45757297856753</v>
+        <v>66.45757297856751</v>
       </c>
       <c r="N34" t="n">
         <v>61.15056627323312</v>
       </c>
       <c r="O34" t="n">
-        <v>14.18512072001893</v>
+        <v>74.41733775793544</v>
       </c>
       <c r="P34" t="n">
-        <v>24.6532569246509</v>
+        <v>26.23654200100041</v>
       </c>
       <c r="Q34" t="n">
-        <v>53.56566312243694</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10749,22 +10749,22 @@
         <v>21.54368199160336</v>
       </c>
       <c r="L37" t="n">
-        <v>68.16559305359095</v>
+        <v>17.36261617591074</v>
       </c>
       <c r="M37" t="n">
-        <v>66.45757297856751</v>
+        <v>66.45757297856753</v>
       </c>
       <c r="N37" t="n">
-        <v>61.15056627323312</v>
+        <v>61.15056627323315</v>
       </c>
       <c r="O37" t="n">
-        <v>71.98371282711054</v>
+        <v>14.18512072001893</v>
       </c>
       <c r="P37" t="n">
-        <v>24.6532569246509</v>
+        <v>84.88547396256745</v>
       </c>
       <c r="Q37" t="n">
-        <v>53.56566312243694</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>44.62658137956165</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K40" t="n">
-        <v>21.54368199160336</v>
+        <v>81.77589902951988</v>
       </c>
       <c r="L40" t="n">
-        <v>17.36261617591071</v>
+        <v>68.16559305359097</v>
       </c>
       <c r="M40" t="n">
-        <v>6.225355940650999</v>
+        <v>66.45757297856753</v>
       </c>
       <c r="N40" t="n">
-        <v>61.1505662732331</v>
+        <v>0.9183492353166116</v>
       </c>
       <c r="O40" t="n">
-        <v>74.41733775793543</v>
+        <v>64.13775774322382</v>
       </c>
       <c r="P40" t="n">
-        <v>84.88547396256739</v>
+        <v>24.6532569246509</v>
       </c>
       <c r="Q40" t="n">
-        <v>101.9350150692923</v>
+        <v>53.56566312243694</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,22 +11220,22 @@
         <v>44.62658137956165</v>
       </c>
       <c r="K43" t="n">
-        <v>81.77589902951988</v>
+        <v>21.54368199160336</v>
       </c>
       <c r="L43" t="n">
-        <v>68.16559305359095</v>
+        <v>68.16559305359092</v>
       </c>
       <c r="M43" t="n">
-        <v>15.65459610088725</v>
+        <v>6.225355940650999</v>
       </c>
       <c r="N43" t="n">
-        <v>0.9183492353166116</v>
+        <v>61.1505662732331</v>
       </c>
       <c r="O43" t="n">
-        <v>14.18512072001893</v>
+        <v>74.41733775793543</v>
       </c>
       <c r="P43" t="n">
-        <v>84.88547396256742</v>
+        <v>34.08249708488712</v>
       </c>
       <c r="Q43" t="n">
         <v>101.9350150692923</v>
@@ -11454,22 +11454,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>52.4725364634484</v>
+        <v>44.62658137956165</v>
       </c>
       <c r="K46" t="n">
-        <v>21.54368199160336</v>
+        <v>81.77589902951988</v>
       </c>
       <c r="L46" t="n">
-        <v>57.8860130388793</v>
+        <v>65.73196812276603</v>
       </c>
       <c r="M46" t="n">
-        <v>66.4575729785675</v>
+        <v>66.45757297856753</v>
       </c>
       <c r="N46" t="n">
-        <v>61.1505662732331</v>
+        <v>61.15056627323312</v>
       </c>
       <c r="O46" t="n">
-        <v>74.41733775793543</v>
+        <v>14.18512072001893</v>
       </c>
       <c r="P46" t="n">
         <v>24.6532569246509</v>
@@ -23439,7 +23439,7 @@
         <v>119.7890622225935</v>
       </c>
       <c r="J13" t="n">
-        <v>1.923019611862387</v>
+        <v>1.923019611862383</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>371.327270862117</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -23740,13 +23740,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>376.3945355076012</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>407.9941069995947</v>
+        <v>382.8315796074289</v>
       </c>
       <c r="H17" t="n">
         <v>310.221829050409</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>141.2173044442944</v>
+        <v>116.0547770521285</v>
       </c>
       <c r="T17" t="n">
-        <v>216.7260371756751</v>
+        <v>191.5635097835093</v>
       </c>
       <c r="U17" t="n">
-        <v>227.9497132009989</v>
+        <v>253.1122405931648</v>
       </c>
       <c r="V17" t="n">
-        <v>316.5225870764971</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -23800,7 +23800,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.363274596439</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23813,16 +23813,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>126.984534008489</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>106.6249235777148</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>109.9194985880553</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>98.02496066353363</v>
       </c>
       <c r="G18" t="n">
         <v>118.3043646206254</v>
@@ -23867,10 +23867,10 @@
         <v>172.9775181442987</v>
       </c>
       <c r="U18" t="n">
-        <v>182.7634808691216</v>
+        <v>207.9260082612874</v>
       </c>
       <c r="V18" t="n">
-        <v>195.1520742204777</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
         <v>202.6535460158801</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>158.1934111122224</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>101.7461592834061</v>
+        <v>76.58363189124023</v>
       </c>
       <c r="S19" t="n">
-        <v>192.6812454004474</v>
+        <v>167.5187180082815</v>
       </c>
       <c r="T19" t="n">
-        <v>209.211154519736</v>
+        <v>231.3743086467557</v>
       </c>
       <c r="U19" t="n">
         <v>257.3965034355859</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>241.1563976003643</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
@@ -23958,7 +23958,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>195.7184131793572</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>141.2173044442944</v>
+        <v>116.0547770521285</v>
       </c>
       <c r="T20" t="n">
         <v>216.7260371756751</v>
       </c>
       <c r="U20" t="n">
-        <v>230.9490864661451</v>
+        <v>253.1122405931648</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>342.1265172892295</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>370.3626478615852</v>
       </c>
     </row>
     <row r="21">
@@ -24068,7 +24068,7 @@
         <v>82.05570981277423</v>
       </c>
       <c r="I21" t="n">
-        <v>29.78981672629464</v>
+        <v>29.78981672629463</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,22 +24098,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>101.1120255527724</v>
+        <v>123.2751796797921</v>
       </c>
       <c r="T21" t="n">
-        <v>147.8149907521328</v>
+        <v>172.9775181442987</v>
       </c>
       <c r="U21" t="n">
         <v>182.7634808691216</v>
       </c>
       <c r="V21" t="n">
-        <v>220.3146016126436</v>
+        <v>195.1520742204777</v>
       </c>
       <c r="W21" t="n">
         <v>202.6535460158801</v>
       </c>
       <c r="X21" t="n">
-        <v>187.4140068734885</v>
+        <v>165.2508527464688</v>
       </c>
       <c r="Y21" t="n">
         <v>177.5210747552478</v>
@@ -24135,7 +24135,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>131.8400698923698</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>76.58363189124023</v>
+        <v>101.7461592834061</v>
       </c>
       <c r="S22" t="n">
-        <v>167.5187180082815</v>
+        <v>192.6812454004474</v>
       </c>
       <c r="T22" t="n">
         <v>231.3743086467557</v>
@@ -24186,10 +24186,10 @@
         <v>257.3965034355859</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>238.1570243352181</v>
       </c>
       <c r="W22" t="n">
-        <v>258.3339439211144</v>
+        <v>255.3345706559683</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24259,19 +24259,19 @@
         <v>77.36882391920733</v>
       </c>
       <c r="T23" t="n">
-        <v>216.0313495875199</v>
+        <v>155.7991325496033</v>
       </c>
       <c r="U23" t="n">
-        <v>253.0995449890409</v>
+        <v>192.8673279511244</v>
       </c>
       <c r="V23" t="n">
-        <v>278.4535241656002</v>
+        <v>285.6332044365199</v>
       </c>
       <c r="W23" t="n">
-        <v>307.0568276434789</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>332.5055422492769</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>90.04615405863521</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
-        <v>96.09515136851186</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>68.55586066681795</v>
       </c>
       <c r="E24" t="n">
         <v>135.0820259802211</v>
@@ -24299,7 +24299,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>118.2194552824311</v>
+        <v>65.16691851543426</v>
       </c>
       <c r="H24" t="n">
         <v>81.23566436231876</v>
@@ -24344,13 +24344,13 @@
         <v>207.9204221206168</v>
       </c>
       <c r="V24" t="n">
-        <v>160.0823845747271</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
         <v>167.5838563701295</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4140068734885</v>
+        <v>127.1817898355719</v>
       </c>
       <c r="Y24" t="n">
         <v>177.5210747552478</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>123.1237214664717</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>108.2708497167542</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>45.49287990847466</v>
+        <v>98.5454166754715</v>
       </c>
       <c r="S25" t="n">
         <v>191.4406826063894</v>
       </c>
       <c r="T25" t="n">
-        <v>231.0701539711129</v>
+        <v>178.0176172041161</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5551480021053</v>
+        <v>222.3229309641888</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>203.0873346894675</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>220.2648810102176</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>160.6487235336066</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>343.437261487286</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>329.0115294441822</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>321.3545004575824</v>
       </c>
       <c r="E26" t="n">
-        <v>338.3254725967043</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>137.6010409571238</v>
+        <v>77.36882391920733</v>
       </c>
       <c r="T26" t="n">
-        <v>216.0313495875199</v>
+        <v>155.7991325496033</v>
       </c>
       <c r="U26" t="n">
         <v>253.0995449890409</v>
@@ -24511,7 +24511,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>339.4732652216081</v>
       </c>
     </row>
     <row r="27">
@@ -24530,19 +24530,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>74.84980894230463</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>92.03332162407428</v>
+        <v>118.2194552824311</v>
       </c>
       <c r="H27" t="n">
-        <v>21.00344732440225</v>
+        <v>81.23566436231876</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.86640310864002</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24578,16 +24578,16 @@
         <v>172.6352739258752</v>
       </c>
       <c r="U27" t="n">
-        <v>207.9204221206168</v>
+        <v>147.6882050827003</v>
       </c>
       <c r="V27" t="n">
-        <v>220.3146016126436</v>
+        <v>160.0823845747271</v>
       </c>
       <c r="W27" t="n">
-        <v>227.816073408046</v>
+        <v>167.5838563701295</v>
       </c>
       <c r="X27" t="n">
-        <v>127.1817898355719</v>
+        <v>134.3614701064916</v>
       </c>
       <c r="Y27" t="n">
         <v>177.5210747552478</v>
@@ -24618,10 +24618,10 @@
         <v>166.0351563239811</v>
       </c>
       <c r="H28" t="n">
-        <v>88.92284682891952</v>
+        <v>149.155063866836</v>
       </c>
       <c r="I28" t="n">
-        <v>55.40154515979097</v>
+        <v>115.6337621977075</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>45.49287990847466</v>
+        <v>98.5454166754715</v>
       </c>
       <c r="S28" t="n">
         <v>131.2084655684729</v>
       </c>
       <c r="T28" t="n">
-        <v>231.0701539711129</v>
+        <v>170.8379369331964</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5551480021053</v>
+        <v>222.3229309641888</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>227.4445612811373</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24691,10 +24691,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>352.4932770474055</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>354.7828751810491</v>
+        <v>407.8354119480459</v>
       </c>
       <c r="H29" t="n">
         <v>308.5965933537339</v>
@@ -24733,7 +24733,7 @@
         <v>137.6010409571238</v>
       </c>
       <c r="T29" t="n">
-        <v>216.0313495875199</v>
+        <v>155.7991325496033</v>
       </c>
       <c r="U29" t="n">
         <v>253.0995449890409</v>
@@ -24745,7 +24745,7 @@
         <v>307.0568276434789</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>332.5055422492769</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.2783710965517</v>
+        <v>90.04615405863521</v>
       </c>
       <c r="C30" t="n">
         <v>149.1476881355087</v>
@@ -24767,7 +24767,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>74.84980894230463</v>
       </c>
       <c r="F30" t="n">
         <v>123.1874880556995</v>
@@ -24776,7 +24776,7 @@
         <v>118.2194552824311</v>
       </c>
       <c r="H30" t="n">
-        <v>55.04953070396193</v>
+        <v>21.00344732440225</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24815,13 +24815,13 @@
         <v>172.6352739258752</v>
       </c>
       <c r="U30" t="n">
-        <v>147.6882050827003</v>
+        <v>181.7342884622599</v>
       </c>
       <c r="V30" t="n">
-        <v>160.0823845747271</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
-        <v>167.5838563701295</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
         <v>187.4140068734885</v>
@@ -24840,16 +24840,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>115.4505299876738</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>93.84456492859388</v>
       </c>
       <c r="E31" t="n">
-        <v>93.77100698147299</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>95.52045840124026</v>
       </c>
       <c r="G31" t="n">
         <v>166.0351563239811</v>
@@ -24891,7 +24891,7 @@
         <v>191.4406826063894</v>
       </c>
       <c r="T31" t="n">
-        <v>231.0701539711129</v>
+        <v>178.0176172041161</v>
       </c>
       <c r="U31" t="n">
         <v>282.5551480021053</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>336.2575812163664</v>
       </c>
       <c r="C32" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>321.3545004575824</v>
       </c>
       <c r="E32" t="n">
-        <v>338.3254725967043</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>352.4932770474055</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>407.8354119480459</v>
@@ -24937,7 +24937,7 @@
         <v>308.5965933537339</v>
       </c>
       <c r="I32" t="n">
-        <v>37.8033675410064</v>
+        <v>90.85590430800323</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>137.6010409571238</v>
       </c>
       <c r="T32" t="n">
-        <v>216.0313495875199</v>
+        <v>155.7991325496033</v>
       </c>
       <c r="U32" t="n">
-        <v>192.8673279511244</v>
+        <v>253.0995449890409</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -24985,7 +24985,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>339.4732652216081</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.2783710965517</v>
+        <v>124.0922374381949</v>
       </c>
       <c r="C33" t="n">
         <v>149.1476881355087</v>
@@ -25010,13 +25010,13 @@
         <v>62.95527101778301</v>
       </c>
       <c r="G33" t="n">
-        <v>57.98723824451458</v>
+        <v>118.2194552824311</v>
       </c>
       <c r="H33" t="n">
-        <v>81.23566436231876</v>
+        <v>21.00344732440225</v>
       </c>
       <c r="I33" t="n">
-        <v>26.86640310864002</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,19 +25046,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>121.6980259637708</v>
+        <v>61.4658089258543</v>
       </c>
       <c r="T33" t="n">
         <v>172.6352739258752</v>
       </c>
       <c r="U33" t="n">
-        <v>154.8678853536199</v>
+        <v>207.9204221206168</v>
       </c>
       <c r="V33" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
-        <v>167.5838563701295</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
         <v>187.4140068734885</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>130.3034017373914</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>98.5454166754715</v>
+        <v>38.31319963755499</v>
       </c>
       <c r="S34" t="n">
         <v>191.4406826063894</v>
@@ -25131,19 +25131,19 @@
         <v>170.8379369331964</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5551480021053</v>
+        <v>222.3229309641888</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>210.2670149603872</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>171.5073019569302</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>160.6487235336066</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25162,16 +25162,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>338.3254725967043</v>
       </c>
       <c r="F35" t="n">
-        <v>359.6729573183252</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>347.6031949101293</v>
+        <v>407.8354119480459</v>
       </c>
       <c r="H35" t="n">
-        <v>248.3643763158174</v>
+        <v>308.5965933537339</v>
       </c>
       <c r="I35" t="n">
         <v>90.85590430800323</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>77.36882391920733</v>
+        <v>77.36882391920732</v>
       </c>
       <c r="T35" t="n">
         <v>216.0313495875199</v>
@@ -25219,10 +25219,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>325.3258619783572</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>339.473265221608</v>
       </c>
     </row>
     <row r="36">
@@ -25238,16 +25238,16 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>75.7355409377376</v>
       </c>
       <c r="E36" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>62.95527101778301</v>
+        <v>62.95527101778299</v>
       </c>
       <c r="G36" t="n">
-        <v>57.98723824451459</v>
+        <v>118.2194552824311</v>
       </c>
       <c r="H36" t="n">
         <v>81.23566436231876</v>
@@ -25286,16 +25286,16 @@
         <v>121.6980259637708</v>
       </c>
       <c r="T36" t="n">
-        <v>172.6352739258752</v>
+        <v>112.4030568879587</v>
       </c>
       <c r="U36" t="n">
-        <v>154.8678853536199</v>
+        <v>147.6882050827002</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>167.5838563701295</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
         <v>187.4140068734885</v>
@@ -25323,13 +25323,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>95.52045840124026</v>
+        <v>102.7001386721599</v>
       </c>
       <c r="G37" t="n">
-        <v>105.8029392860646</v>
+        <v>166.0351563239811</v>
       </c>
       <c r="H37" t="n">
-        <v>88.92284682891952</v>
+        <v>149.155063866836</v>
       </c>
       <c r="I37" t="n">
         <v>115.6337621977075</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>98.5454166754715</v>
+        <v>38.31319963755497</v>
       </c>
       <c r="S37" t="n">
-        <v>191.4406826063894</v>
+        <v>131.2084655684729</v>
       </c>
       <c r="T37" t="n">
-        <v>178.0176172041161</v>
+        <v>170.8379369331964</v>
       </c>
       <c r="U37" t="n">
         <v>282.5551480021053</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>343.437261487286</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>329.0115294441822</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>321.3545004575824</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>338.3254725967044</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>359.6729573183251</v>
       </c>
       <c r="G38" t="n">
-        <v>407.8354119480459</v>
+        <v>347.6031949101293</v>
       </c>
       <c r="H38" t="n">
         <v>308.5965933537339</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>137.6010409571238</v>
+        <v>77.36882391920732</v>
       </c>
       <c r="T38" t="n">
-        <v>216.0313495875199</v>
+        <v>155.7991325496033</v>
       </c>
       <c r="U38" t="n">
         <v>253.0995449890409</v>
@@ -25475,7 +25475,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>68.55586066681794</v>
       </c>
       <c r="E39" t="n">
         <v>135.0820259802211</v>
@@ -25484,13 +25484,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>92.03332162407428</v>
+        <v>57.98723824451457</v>
       </c>
       <c r="H39" t="n">
         <v>81.23566436231876</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.86640310864002</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,16 +25523,16 @@
         <v>121.6980259637708</v>
       </c>
       <c r="T39" t="n">
-        <v>172.6352739258752</v>
+        <v>112.4030568879587</v>
       </c>
       <c r="U39" t="n">
-        <v>147.6882050827003</v>
+        <v>207.9204221206168</v>
       </c>
       <c r="V39" t="n">
-        <v>160.0823845747271</v>
+        <v>167.2620648456468</v>
       </c>
       <c r="W39" t="n">
-        <v>167.5838563701295</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
         <v>187.4140068734885</v>
@@ -25554,10 +25554,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>101.0242451995135</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>93.77100698147298</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>98.5454166754715</v>
+        <v>38.31319963755497</v>
       </c>
       <c r="S40" t="n">
         <v>191.4406826063894</v>
       </c>
       <c r="T40" t="n">
-        <v>178.0176172041161</v>
+        <v>170.8379369331964</v>
       </c>
       <c r="U40" t="n">
-        <v>222.3229309641888</v>
+        <v>282.5551480021053</v>
       </c>
       <c r="V40" t="n">
-        <v>203.0873346894675</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>220.2648810102177</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>336.2575812163664</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -25636,10 +25636,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>338.3254725967043</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>359.6729573183251</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>407.8354119480459</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>137.6010409571238</v>
+        <v>77.36882391920736</v>
       </c>
       <c r="T41" t="n">
-        <v>216.0313495875199</v>
+        <v>155.7991325496034</v>
       </c>
       <c r="U41" t="n">
         <v>253.0995449890409</v>
@@ -25693,10 +25693,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>325.3258619783572</v>
       </c>
       <c r="Y41" t="n">
-        <v>332.2935849506883</v>
+        <v>339.4732652216081</v>
       </c>
     </row>
     <row r="42">
@@ -25712,7 +25712,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
-        <v>128.7880777047345</v>
+        <v>68.55586066681798</v>
       </c>
       <c r="E42" t="n">
         <v>135.0820259802211</v>
@@ -25757,19 +25757,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>61.4658089258543</v>
+        <v>61.46580892585433</v>
       </c>
       <c r="T42" t="n">
-        <v>112.4030568879587</v>
+        <v>172.6352739258752</v>
       </c>
       <c r="U42" t="n">
-        <v>207.9204221206168</v>
+        <v>147.6882050827003</v>
       </c>
       <c r="V42" t="n">
-        <v>160.0823845747271</v>
+        <v>167.2620648456468</v>
       </c>
       <c r="W42" t="n">
-        <v>174.7635366410492</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
         <v>187.4140068734885</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>38.31319963755497</v>
+        <v>38.31319963755501</v>
       </c>
       <c r="S43" t="n">
         <v>191.4406826063894</v>
@@ -25848,10 +25848,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>227.4445612811373</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>178.6869822278499</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25876,10 +25876,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>352.4932770474055</v>
+        <v>359.6729573183252</v>
       </c>
       <c r="G44" t="n">
-        <v>347.6031949101294</v>
+        <v>347.6031949101293</v>
       </c>
       <c r="H44" t="n">
         <v>308.5965933537339</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.54850419012701</v>
+        <v>77.36882391920733</v>
       </c>
       <c r="T44" t="n">
         <v>155.7991325496033</v>
@@ -25955,13 +25955,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>70.13495128870267</v>
+        <v>62.95527101778301</v>
       </c>
       <c r="G45" t="n">
         <v>57.98723824451459</v>
       </c>
       <c r="H45" t="n">
-        <v>81.23566436231876</v>
+        <v>28.18312759532192</v>
       </c>
       <c r="I45" t="n">
         <v>26.86640310864002</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>61.46580892585432</v>
+        <v>61.4658089258543</v>
       </c>
       <c r="T45" t="n">
         <v>172.6352739258752</v>
@@ -26006,7 +26006,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>167.5838563701295</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
@@ -26028,13 +26028,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>93.84456492859388</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>95.52045840124026</v>
       </c>
       <c r="G46" t="n">
         <v>166.0351563239811</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>38.313199637555</v>
+        <v>98.5454166754715</v>
       </c>
       <c r="S46" t="n">
         <v>191.4406826063894</v>
       </c>
       <c r="T46" t="n">
-        <v>231.0701539711129</v>
+        <v>170.8379369331964</v>
       </c>
       <c r="U46" t="n">
         <v>229.5026112351084</v>
@@ -26085,10 +26085,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>220.2648810102177</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>171.5073019569302</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>262217.0022470363</v>
+        <v>262217.0022470364</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>262217.0022470363</v>
+        <v>262217.0022470364</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>291119.7196558769</v>
+        <v>291119.719655877</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>291119.719655877</v>
+        <v>291119.7196558769</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52410.71399015421</v>
+        <v>52410.71399015423</v>
       </c>
       <c r="C2" t="n">
         <v>52557.43431647898</v>
       </c>
       <c r="D2" t="n">
-        <v>52745.75031853782</v>
+        <v>52745.75031853786</v>
       </c>
       <c r="E2" t="n">
-        <v>52907.52695791489</v>
+        <v>52907.5269579149</v>
       </c>
       <c r="F2" t="n">
         <v>52907.52695791489</v>
       </c>
       <c r="G2" t="n">
-        <v>57984.04470917525</v>
+        <v>57984.04470917527</v>
       </c>
       <c r="H2" t="n">
-        <v>57984.04470917529</v>
+        <v>57984.04470917527</v>
       </c>
       <c r="I2" t="n">
-        <v>64896.70992193196</v>
+        <v>64896.70992193194</v>
       </c>
       <c r="J2" t="n">
         <v>64896.70992193196</v>
@@ -26346,16 +26346,16 @@
         <v>64896.70992193198</v>
       </c>
       <c r="M2" t="n">
-        <v>64896.70992193197</v>
+        <v>64896.70992193196</v>
       </c>
       <c r="N2" t="n">
-        <v>64896.70992193199</v>
+        <v>64896.70992193194</v>
       </c>
       <c r="O2" t="n">
         <v>64896.70992193195</v>
       </c>
       <c r="P2" t="n">
-        <v>64896.70992193198</v>
+        <v>64896.70992193196</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>174523.6287437367</v>
       </c>
       <c r="C3" t="n">
-        <v>10675.17359380923</v>
+        <v>10675.1735938092</v>
       </c>
       <c r="D3" t="n">
         <v>12886.26462898379</v>
       </c>
       <c r="E3" t="n">
-        <v>10384.97177469634</v>
+        <v>10384.97177469637</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39040.83035318513</v>
+        <v>39040.83035318508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6055.387379452117</v>
+        <v>6055.387379452104</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26435,19 +26435,19 @@
         <v>8001.087476713366</v>
       </c>
       <c r="H4" t="n">
-        <v>8001.087476713372</v>
+        <v>8001.087476713368</v>
       </c>
       <c r="I4" t="n">
-        <v>6624.837379517466</v>
+        <v>6624.837379517465</v>
       </c>
       <c r="J4" t="n">
-        <v>6624.837379517466</v>
+        <v>6624.837379517465</v>
       </c>
       <c r="K4" t="n">
-        <v>6624.837379517466</v>
+        <v>6624.837379517465</v>
       </c>
       <c r="L4" t="n">
-        <v>6624.837379517466</v>
+        <v>6624.837379517465</v>
       </c>
       <c r="M4" t="n">
         <v>6624.837379517466</v>
@@ -26456,10 +26456,10 @@
         <v>6624.837379517465</v>
       </c>
       <c r="O4" t="n">
+        <v>6624.837379517465</v>
+      </c>
+      <c r="P4" t="n">
         <v>6624.837379517466</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6624.837379517465</v>
       </c>
     </row>
     <row r="5">
@@ -26487,7 +26487,7 @@
         <v>7153.387061545125</v>
       </c>
       <c r="H5" t="n">
-        <v>7153.387061545123</v>
+        <v>7153.387061545125</v>
       </c>
       <c r="I5" t="n">
         <v>10146.18778279355</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-175153.7564879208</v>
+        <v>-176553.9189304685</v>
       </c>
       <c r="C6" t="n">
-        <v>-9641.771665244723</v>
+        <v>-11040.80548989765</v>
       </c>
       <c r="D6" t="n">
-        <v>-9807.103956276274</v>
+        <v>-11204.68919629798</v>
       </c>
       <c r="E6" t="n">
-        <v>27665.17675805509</v>
+        <v>26268.83595372086</v>
       </c>
       <c r="F6" t="n">
-        <v>38050.14853275144</v>
+        <v>36653.80772841722</v>
       </c>
       <c r="G6" t="n">
-        <v>7050.079901476485</v>
+        <v>5692.789233690437</v>
       </c>
       <c r="H6" t="n">
-        <v>42829.57017091679</v>
+        <v>41472.27950313072</v>
       </c>
       <c r="I6" t="n">
-        <v>9084.854406435821</v>
+        <v>7780.738086440215</v>
       </c>
       <c r="J6" t="n">
-        <v>48125.68475962095</v>
+        <v>46821.56843962531</v>
       </c>
       <c r="K6" t="n">
-        <v>48125.68475962096</v>
+        <v>46821.56843962533</v>
       </c>
       <c r="L6" t="n">
-        <v>48125.68475962096</v>
+        <v>46821.56843962533</v>
       </c>
       <c r="M6" t="n">
-        <v>48125.68475962096</v>
+        <v>46821.56843962531</v>
       </c>
       <c r="N6" t="n">
-        <v>48125.68475962097</v>
+        <v>46821.5684396253</v>
       </c>
       <c r="O6" t="n">
-        <v>42070.29738016882</v>
+        <v>40766.18106017321</v>
       </c>
       <c r="P6" t="n">
-        <v>48125.68475962097</v>
+        <v>46821.56843962532</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>257.9589631239192</v>
       </c>
       <c r="H3" t="n">
-        <v>257.9589631239191</v>
+        <v>257.9589631239192</v>
       </c>
       <c r="I3" t="n">
         <v>297.4343571967077</v>
@@ -26822,16 +26822,16 @@
         <v>60.23221703791651</v>
       </c>
       <c r="M4" t="n">
+        <v>60.23221703791653</v>
+      </c>
+      <c r="N4" t="n">
+        <v>60.23221703791653</v>
+      </c>
+      <c r="O4" t="n">
+        <v>60.23221703791649</v>
+      </c>
+      <c r="P4" t="n">
         <v>60.23221703791651</v>
-      </c>
-      <c r="N4" t="n">
-        <v>60.2322170379165</v>
-      </c>
-      <c r="O4" t="n">
-        <v>60.23221703791652</v>
-      </c>
-      <c r="P4" t="n">
-        <v>60.2322170379165</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>181.113817210578</v>
       </c>
       <c r="C3" t="n">
-        <v>11.7232046424335</v>
+        <v>11.72320464243347</v>
       </c>
       <c r="D3" t="n">
         <v>15.04677017071626</v>
       </c>
       <c r="E3" t="n">
-        <v>12.9262297684927</v>
+        <v>12.92622976849273</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39.4753940727885</v>
+        <v>39.47539407278845</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>25.1625273921659</v>
+        <v>25.16252739216585</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31050,10 +31050,10 @@
         <v>28.06991130858616</v>
       </c>
       <c r="J2" t="n">
-        <v>61.79621645618609</v>
+        <v>61.79621645618611</v>
       </c>
       <c r="K2" t="n">
-        <v>92.6165094512565</v>
+        <v>92.61650945125652</v>
       </c>
       <c r="L2" t="n">
         <v>114.8989696862645</v>
@@ -31062,7 +31062,7 @@
         <v>127.8472424372941</v>
       </c>
       <c r="N2" t="n">
-        <v>129.9159444801063</v>
+        <v>129.9159444801064</v>
       </c>
       <c r="O2" t="n">
         <v>122.6759423901056</v>
@@ -31083,7 +31083,7 @@
         <v>3.187239135032381</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05824765980641697</v>
+        <v>0.05824765980641698</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31156,7 +31156,7 @@
         <v>24.18723770219757</v>
       </c>
       <c r="S3" t="n">
-        <v>7.236009583837708</v>
+        <v>7.236009583837709</v>
       </c>
       <c r="T3" t="n">
         <v>1.570222622797369</v>
@@ -31202,10 +31202,10 @@
         <v>0.3265986867731733</v>
       </c>
       <c r="H4" t="n">
-        <v>2.903759233310579</v>
+        <v>2.90375923331058</v>
       </c>
       <c r="I4" t="n">
-        <v>9.821713234960523</v>
+        <v>9.821713234960525</v>
       </c>
       <c r="J4" t="n">
         <v>23.09052715486335</v>
@@ -31223,7 +31223,7 @@
         <v>49.97850631320755</v>
       </c>
       <c r="O4" t="n">
-        <v>46.16323983590273</v>
+        <v>46.16323983590274</v>
       </c>
       <c r="P4" t="n">
         <v>39.50062662572996</v>
@@ -31232,10 +31232,10 @@
         <v>27.34818639879727</v>
       </c>
       <c r="R4" t="n">
-        <v>14.68506458891013</v>
+        <v>14.68506458891014</v>
       </c>
       <c r="S4" t="n">
-        <v>5.691724386765209</v>
+        <v>5.69172438676521</v>
       </c>
       <c r="T4" t="n">
         <v>1.395467116212649</v>
@@ -31284,7 +31284,7 @@
         <v>7.939264924832774</v>
       </c>
       <c r="I5" t="n">
-        <v>29.88683129643507</v>
+        <v>29.88683129643508</v>
       </c>
       <c r="J5" t="n">
         <v>65.79618566229962</v>
@@ -31296,7 +31296,7 @@
         <v>122.3361942756547</v>
       </c>
       <c r="M5" t="n">
-        <v>136.1225877927542</v>
+        <v>136.1225877927541</v>
       </c>
       <c r="N5" t="n">
         <v>138.325193575025</v>
@@ -31360,7 +31360,7 @@
         <v>0.4147815187027039</v>
       </c>
       <c r="H6" t="n">
-        <v>4.00591624641822</v>
+        <v>4.005916246418219</v>
       </c>
       <c r="I6" t="n">
         <v>14.2808549202466</v>
@@ -31393,7 +31393,7 @@
         <v>25.7528385033135</v>
       </c>
       <c r="S6" t="n">
-        <v>7.70438478818399</v>
+        <v>7.704384788183989</v>
       </c>
       <c r="T6" t="n">
         <v>1.671860595121863</v>
@@ -31454,13 +31454,13 @@
         <v>51.69928943252704</v>
       </c>
       <c r="M7" t="n">
-        <v>54.50965193133567</v>
+        <v>54.50965193133566</v>
       </c>
       <c r="N7" t="n">
         <v>53.2135342434712</v>
       </c>
       <c r="O7" t="n">
-        <v>49.15131173394464</v>
+        <v>49.15131173394463</v>
       </c>
       <c r="P7" t="n">
         <v>42.05743833987644</v>
@@ -31518,7 +31518,7 @@
         <v>0.8357137367788041</v>
       </c>
       <c r="H8" t="n">
-        <v>8.558753306785929</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I8" t="n">
         <v>32.21885383716488</v>
@@ -31624,13 +31624,13 @@
         <v>85.38532582197224</v>
       </c>
       <c r="Q9" t="n">
-        <v>57.07782908545823</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R9" t="n">
         <v>27.76229207441406</v>
       </c>
       <c r="S9" t="n">
-        <v>8.305545841702699</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T9" t="n">
         <v>1.802313253488733</v>
@@ -31685,7 +31685,7 @@
         <v>26.50347951751689</v>
       </c>
       <c r="K10" t="n">
-        <v>43.55335839447932</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L10" t="n">
         <v>55.73330384845972</v>
@@ -31700,7 +31700,7 @@
         <v>52.9865114489331</v>
       </c>
       <c r="P10" t="n">
-        <v>45.33911424727332</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q10" t="n">
         <v>31.39045259558288</v>
@@ -31709,7 +31709,7 @@
         <v>16.85562680900585</v>
       </c>
       <c r="S10" t="n">
-        <v>6.533003759171898</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T10" t="n">
         <v>1.601727577887737</v>
@@ -31755,7 +31755,7 @@
         <v>0.8876784795667145</v>
       </c>
       <c r="H11" t="n">
-        <v>9.090937228862616</v>
+        <v>9.090937228862618</v>
       </c>
       <c r="I11" t="n">
         <v>34.22222458349579</v>
@@ -31764,7 +31764,7 @@
         <v>75.3406013551255</v>
       </c>
       <c r="K11" t="n">
-        <v>112.9160313951845</v>
+        <v>112.9160313951846</v>
       </c>
       <c r="L11" t="n">
         <v>140.0823216642244</v>
@@ -31791,7 +31791,7 @@
         <v>20.22797335312653</v>
       </c>
       <c r="T11" t="n">
-        <v>3.885812544303294</v>
+        <v>3.885812544303295</v>
       </c>
       <c r="U11" t="n">
         <v>0.07101427836533715</v>
@@ -31834,16 +31834,16 @@
         <v>0.4749498581945873</v>
       </c>
       <c r="H12" t="n">
-        <v>4.587015735721409</v>
+        <v>4.58701573572141</v>
       </c>
       <c r="I12" t="n">
         <v>16.35244029310312</v>
       </c>
       <c r="J12" t="n">
-        <v>44.87234603232283</v>
+        <v>44.87234603232284</v>
       </c>
       <c r="K12" t="n">
-        <v>76.69398653136018</v>
+        <v>76.6939865313602</v>
       </c>
       <c r="L12" t="n">
         <v>90.06034685691823</v>
@@ -31913,13 +31913,13 @@
         <v>0.3981820065105613</v>
       </c>
       <c r="H13" t="n">
-        <v>3.540200021521175</v>
+        <v>3.540200021521176</v>
       </c>
       <c r="I13" t="n">
         <v>11.97441888669943</v>
       </c>
       <c r="J13" t="n">
-        <v>28.15146786029668</v>
+        <v>28.15146786029669</v>
       </c>
       <c r="K13" t="n">
         <v>46.26150948368157</v>
@@ -31928,7 +31928,7 @@
         <v>59.19880485885201</v>
       </c>
       <c r="M13" t="n">
-        <v>62.41683943874189</v>
+        <v>62.4168394387419</v>
       </c>
       <c r="N13" t="n">
         <v>60.9327065053844</v>
@@ -31937,7 +31937,7 @@
         <v>56.28121670205645</v>
       </c>
       <c r="P13" t="n">
-        <v>48.15830376924096</v>
+        <v>48.15830376924097</v>
       </c>
       <c r="Q13" t="n">
         <v>33.34231329062528</v>
@@ -31949,7 +31949,7 @@
         <v>6.939226422552235</v>
       </c>
       <c r="T13" t="n">
-        <v>1.701323118726943</v>
+        <v>1.701323118726944</v>
       </c>
       <c r="U13" t="n">
         <v>0.02171901853693974</v>
@@ -32317,22 +32317,22 @@
         <v>52.42164174200325</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333333</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>115.2228742490841</v>
       </c>
       <c r="M18" t="n">
-        <v>117.5496494414778</v>
+        <v>116.5329816680569</v>
       </c>
       <c r="N18" t="n">
         <v>110.5346402463325</v>
       </c>
       <c r="O18" t="n">
-        <v>97.96378958648445</v>
+        <v>117.8500862810548</v>
       </c>
       <c r="P18" t="n">
-        <v>105.9529937404641</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>70.8267704033825</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.037020957282086</v>
+        <v>1.037020957282087</v>
       </c>
       <c r="H20" t="n">
         <v>10.62039087876517</v>
       </c>
       <c r="I20" t="n">
-        <v>39.97975045561767</v>
+        <v>39.97975045561768</v>
       </c>
       <c r="J20" t="n">
-        <v>88.01585747312055</v>
+        <v>88.01585747312056</v>
       </c>
       <c r="K20" t="n">
         <v>131.9129545948713</v>
@@ -32487,25 +32487,25 @@
         <v>174.28101872995</v>
       </c>
       <c r="O20" t="n">
-        <v>174.7263648162622</v>
+        <v>174.7263648162623</v>
       </c>
       <c r="P20" t="n">
-        <v>149.1249099333607</v>
+        <v>149.1249099333608</v>
       </c>
       <c r="Q20" t="n">
         <v>111.986596900696</v>
       </c>
       <c r="R20" t="n">
-        <v>65.14176770787091</v>
+        <v>65.14176770787093</v>
       </c>
       <c r="S20" t="n">
-        <v>23.63111506406556</v>
+        <v>23.63111506406557</v>
       </c>
       <c r="T20" t="n">
-        <v>4.539559240502335</v>
+        <v>4.539559240502336</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08296167658256688</v>
+        <v>0.0829616765825669</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5548551282288072</v>
+        <v>0.5548551282288073</v>
       </c>
       <c r="H21" t="n">
-        <v>5.35873242263085</v>
+        <v>5.358732422630851</v>
       </c>
       <c r="I21" t="n">
-        <v>19.10356472191288</v>
+        <v>19.10356472191289</v>
       </c>
       <c r="J21" t="n">
-        <v>52.42164174200324</v>
+        <v>52.42164174200325</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333333</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>115.2228742490841</v>
@@ -32566,25 +32566,25 @@
         <v>110.5346402463325</v>
       </c>
       <c r="O21" t="n">
-        <v>97.96378958648448</v>
+        <v>97.96378958648447</v>
       </c>
       <c r="P21" t="n">
         <v>105.9529937404641</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.82677040338248</v>
+        <v>70.8267704033825</v>
       </c>
       <c r="R21" t="n">
-        <v>34.44968945266227</v>
+        <v>34.44968945266228</v>
       </c>
       <c r="S21" t="n">
         <v>10.30619064933771</v>
       </c>
       <c r="T21" t="n">
-        <v>2.236455538781902</v>
+        <v>2.236455538781903</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03650362685715838</v>
+        <v>0.03650362685715839</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,43 +32621,43 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.465171900715264</v>
+        <v>0.4651719007152641</v>
       </c>
       <c r="H22" t="n">
-        <v>4.135801080904804</v>
+        <v>4.135801080904805</v>
       </c>
       <c r="I22" t="n">
         <v>13.98898770514631</v>
       </c>
       <c r="J22" t="n">
-        <v>32.88765338056916</v>
+        <v>32.88765338056917</v>
       </c>
       <c r="K22" t="n">
-        <v>54.04451719219157</v>
+        <v>54.04451719219158</v>
       </c>
       <c r="L22" t="n">
-        <v>69.15837512997662</v>
+        <v>69.15837512997663</v>
       </c>
       <c r="M22" t="n">
-        <v>72.91780985484814</v>
+        <v>72.91780985484816</v>
       </c>
       <c r="N22" t="n">
-        <v>71.18398731581858</v>
+        <v>71.1839873158186</v>
       </c>
       <c r="O22" t="n">
-        <v>65.74993374837207</v>
+        <v>65.74993374837209</v>
       </c>
       <c r="P22" t="n">
-        <v>56.26042697378063</v>
+        <v>56.26042697378065</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.95180343171179</v>
+        <v>38.9518034317118</v>
       </c>
       <c r="R22" t="n">
-        <v>20.91582019034268</v>
+        <v>20.91582019034269</v>
       </c>
       <c r="S22" t="n">
-        <v>8.106677578828734</v>
+        <v>8.106677578828736</v>
       </c>
       <c r="T22" t="n">
         <v>1.987552666692491</v>
@@ -32791,13 +32791,13 @@
         <v>60.44371215447435</v>
       </c>
       <c r="K24" t="n">
-        <v>103.3079314048225</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>138.9102627643681</v>
+        <v>113.4788851961671</v>
       </c>
       <c r="M24" t="n">
-        <v>113.4769654475383</v>
+        <v>152.6193390872284</v>
       </c>
       <c r="N24" t="n">
         <v>145.6043298920832</v>
@@ -33040,10 +33040,10 @@
         <v>145.6043298920832</v>
       </c>
       <c r="O27" t="n">
-        <v>152.2162412721679</v>
+        <v>126.7848637039669</v>
       </c>
       <c r="P27" t="n">
-        <v>96.7355756735939</v>
+        <v>122.1669532417949</v>
       </c>
       <c r="Q27" t="n">
         <v>81.66537294200926</v>
@@ -33274,10 +33274,10 @@
         <v>152.6193390872284</v>
       </c>
       <c r="N30" t="n">
-        <v>106.461956252393</v>
+        <v>145.6043298920832</v>
       </c>
       <c r="O30" t="n">
-        <v>152.2162412721679</v>
+        <v>113.0738676324778</v>
       </c>
       <c r="P30" t="n">
         <v>122.1669532417949</v>
@@ -33502,7 +33502,7 @@
         <v>60.44371215447435</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>103.3079314048225</v>
       </c>
       <c r="L33" t="n">
         <v>138.9102627643681</v>
@@ -33511,13 +33511,13 @@
         <v>152.6193390872284</v>
       </c>
       <c r="N33" t="n">
-        <v>145.6043298920832</v>
+        <v>141.5455446748733</v>
       </c>
       <c r="O33" t="n">
         <v>152.2162412721679</v>
       </c>
       <c r="P33" t="n">
-        <v>96.7355756735939</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>81.66537294200926</v>
@@ -33745,13 +33745,13 @@
         <v>138.9102627643681</v>
       </c>
       <c r="M36" t="n">
-        <v>127.1879615190274</v>
+        <v>152.6193390872284</v>
       </c>
       <c r="N36" t="n">
         <v>145.6043298920832</v>
       </c>
       <c r="O36" t="n">
-        <v>152.2162412721679</v>
+        <v>126.7848637039669</v>
       </c>
       <c r="P36" t="n">
         <v>122.1669532417949</v>
@@ -33985,13 +33985,13 @@
         <v>152.6193390872284</v>
       </c>
       <c r="N39" t="n">
-        <v>106.461956252393</v>
+        <v>145.6043298920832</v>
       </c>
       <c r="O39" t="n">
-        <v>152.2162412721679</v>
+        <v>148.157456054958</v>
       </c>
       <c r="P39" t="n">
-        <v>122.1669532417949</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>81.66537294200926</v>
@@ -34213,16 +34213,16 @@
         <v>60.44371215447435</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>103.3079314048225</v>
       </c>
       <c r="L42" t="n">
-        <v>113.478885196167</v>
+        <v>138.9102627643681</v>
       </c>
       <c r="M42" t="n">
         <v>152.6193390872284</v>
       </c>
       <c r="N42" t="n">
-        <v>145.6043298920832</v>
+        <v>106.4619562523929</v>
       </c>
       <c r="O42" t="n">
         <v>152.2162412721679</v>
@@ -34456,13 +34456,13 @@
         <v>138.9102627643681</v>
       </c>
       <c r="M45" t="n">
-        <v>113.4769654475382</v>
+        <v>152.6193390872284</v>
       </c>
       <c r="N45" t="n">
         <v>145.6043298920832</v>
       </c>
       <c r="O45" t="n">
-        <v>152.2162412721679</v>
+        <v>113.0738676324778</v>
       </c>
       <c r="P45" t="n">
         <v>122.1669532417949</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>13.74434463294373</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>13.74434463294374</v>
       </c>
       <c r="L17" t="n">
         <v>10.4015149858013</v>
@@ -35971,16 +35971,16 @@
         <v>25.16252739216588</v>
       </c>
       <c r="M18" t="n">
-        <v>25.16252739216588</v>
+        <v>24.14585961874504</v>
       </c>
       <c r="N18" t="n">
         <v>25.16252739216588</v>
       </c>
       <c r="O18" t="n">
-        <v>5.276230697595572</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="P18" t="n">
-        <v>18.86962892114946</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.813165908410099</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>21.33269371033494</v>
       </c>
       <c r="N19" t="n">
-        <v>24.14585961874503</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>25.16252739216588</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>25.16252739216588</v>
@@ -36126,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>24.14585961874503</v>
+        <v>10.4015149858013</v>
       </c>
       <c r="M20" t="n">
         <v>25.16252739216588</v>
@@ -36138,7 +36138,7 @@
         <v>25.16252739216588</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>13.74434463294375</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36214,10 +36214,10 @@
         <v>25.16252739216588</v>
       </c>
       <c r="O21" t="n">
-        <v>5.2762306975956</v>
+        <v>5.276230697595586</v>
       </c>
       <c r="P21" t="n">
-        <v>18.86962892114943</v>
+        <v>18.86962892114946</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.813165908410099</v>
       </c>
       <c r="K22" t="n">
         <v>25.16252739216588</v>
       </c>
       <c r="L22" t="n">
-        <v>25.16252739216588</v>
+        <v>21.33269371033495</v>
       </c>
       <c r="M22" t="n">
         <v>25.16252739216588</v>
       </c>
       <c r="N22" t="n">
-        <v>24.14585961874503</v>
+        <v>25.16252739216588</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>9.041157079097133</v>
       </c>
       <c r="L23" t="n">
-        <v>35.4447843331041</v>
+        <v>35.44478433310408</v>
       </c>
       <c r="M23" t="n">
         <v>60.23221703791651</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>13.71099607148916</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>48.84991590744984</v>
+        <v>23.41853833924884</v>
       </c>
       <c r="M24" t="n">
-        <v>21.08984339822635</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="N24" t="n">
         <v>60.23221703791651</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>7.84595508388675</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -36527,16 +36527,16 @@
         <v>60.23221703791651</v>
       </c>
       <c r="N25" t="n">
-        <v>9.429240160236265</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="O25" t="n">
         <v>60.23221703791651</v>
       </c>
       <c r="P25" t="n">
-        <v>60.23221703791651</v>
+        <v>49.95263702320483</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.36935194685534</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>60.23221703791651</v>
       </c>
       <c r="O27" t="n">
-        <v>59.52868238327905</v>
+        <v>34.09730481507803</v>
       </c>
       <c r="P27" t="n">
-        <v>9.652210854279254</v>
+        <v>35.08358842248025</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>7.84595508388675</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>49.95263702320484</v>
       </c>
       <c r="M28" t="n">
         <v>60.23221703791651</v>
       </c>
       <c r="N28" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>60.23221703791651</v>
       </c>
       <c r="P28" t="n">
-        <v>49.95263702320483</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36922,10 +36922,10 @@
         <v>60.23221703791651</v>
       </c>
       <c r="N30" t="n">
-        <v>21.08984339822635</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="O30" t="n">
-        <v>59.52868238327905</v>
+        <v>20.38630874358888</v>
       </c>
       <c r="P30" t="n">
         <v>35.08358842248025</v>
@@ -36995,19 +36995,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>60.23221703791651</v>
+        <v>9.429240160236272</v>
       </c>
       <c r="N31" t="n">
         <v>60.23221703791651</v>
       </c>
       <c r="O31" t="n">
-        <v>9.429240160236279</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="Q31" t="n">
         <v>48.36935194685534</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>13.71099607148916</v>
       </c>
       <c r="L33" t="n">
         <v>48.84991590744984</v>
@@ -37159,13 +37159,13 @@
         <v>60.23221703791651</v>
       </c>
       <c r="N33" t="n">
-        <v>60.23221703791651</v>
+        <v>56.1734318207066</v>
       </c>
       <c r="O33" t="n">
         <v>59.52868238327905</v>
       </c>
       <c r="P33" t="n">
-        <v>9.652210854279254</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>7.84595508388675</v>
       </c>
       <c r="K34" t="n">
-        <v>57.7985921070916</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>60.23221703791651</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>60.23221703791651</v>
@@ -37241,13 +37241,13 @@
         <v>60.23221703791651</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1.583285076349505</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>48.36935194685534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37314,10 +37314,10 @@
         <v>35.44478433310408</v>
       </c>
       <c r="M35" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="N35" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="O35" t="n">
         <v>51.90085825882534</v>
@@ -37393,13 +37393,13 @@
         <v>48.84991590744984</v>
       </c>
       <c r="M36" t="n">
-        <v>34.80083946971551</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="N36" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="O36" t="n">
-        <v>59.52868238327905</v>
+        <v>34.09730481507805</v>
       </c>
       <c r="P36" t="n">
         <v>35.08358842248025</v>
@@ -37469,22 +37469,22 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>60.23221703791651</v>
+        <v>9.429240160236299</v>
       </c>
       <c r="M37" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="N37" t="n">
-        <v>60.23221703791651</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="O37" t="n">
-        <v>57.79859210709161</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>48.36935194685534</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,10 +37551,10 @@
         <v>35.44478433310408</v>
       </c>
       <c r="M38" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="N38" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="O38" t="n">
         <v>51.90085825882534</v>
@@ -37630,16 +37630,16 @@
         <v>48.84991590744984</v>
       </c>
       <c r="M39" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="N39" t="n">
-        <v>21.0898433982263</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="O39" t="n">
-        <v>59.52868238327905</v>
+        <v>55.46989716606914</v>
       </c>
       <c r="P39" t="n">
-        <v>35.08358842248025</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>7.84595508388675</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="L40" t="n">
-        <v>9.429240160236272</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>60.23221703791653</v>
       </c>
       <c r="N40" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>60.2322170379165</v>
+        <v>49.95263702320489</v>
       </c>
       <c r="P40" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.36935194685534</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,10 +37788,10 @@
         <v>35.44478433310408</v>
       </c>
       <c r="M41" t="n">
-        <v>60.23221703791652</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="N41" t="n">
-        <v>60.23221703791652</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="O41" t="n">
         <v>51.90085825882534</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>13.71099607148916</v>
       </c>
       <c r="L42" t="n">
-        <v>23.41853833924882</v>
+        <v>48.84991590744984</v>
       </c>
       <c r="M42" t="n">
-        <v>60.23221703791652</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="N42" t="n">
-        <v>60.23221703791652</v>
+        <v>21.08984339822626</v>
       </c>
       <c r="O42" t="n">
         <v>59.52868238327905</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>60.23221703791652</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>60.23221703791652</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="M43" t="n">
-        <v>9.429240160236251</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>60.23221703791649</v>
       </c>
       <c r="P43" t="n">
-        <v>60.23221703791652</v>
+        <v>9.429240160236223</v>
       </c>
       <c r="Q43" t="n">
         <v>48.36935194685534</v>
@@ -38025,10 +38025,10 @@
         <v>35.44478433310408</v>
       </c>
       <c r="M44" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="N44" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="O44" t="n">
         <v>51.90085825882534</v>
@@ -38104,13 +38104,13 @@
         <v>48.84991590744984</v>
       </c>
       <c r="M45" t="n">
-        <v>21.0898433982263</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="N45" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="O45" t="n">
-        <v>59.52868238327905</v>
+        <v>20.38630874358888</v>
       </c>
       <c r="P45" t="n">
         <v>35.08358842248025</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>7.84595508388675</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="L46" t="n">
-        <v>49.95263702320484</v>
+        <v>57.79859210709159</v>
       </c>
       <c r="M46" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="N46" t="n">
-        <v>60.2322170379165</v>
+        <v>60.23221703791651</v>
       </c>
       <c r="O46" t="n">
-        <v>60.2322170379165</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
